--- a/minute_ma.xlsx
+++ b/minute_ma.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,17 +472,17 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ma5</t>
+          <t>ma5a</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ma5_1</t>
+          <t>ma5b</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ma5_2</t>
+          <t>ma5c</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -492,36 +492,36 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>ma10_1</t>
+          <t>ubb</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>ma10_2</t>
+          <t>dbb</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44597.91666666666</v>
+        <v>44596.75</v>
       </c>
       <c r="B2" t="n">
-        <v>822</v>
+        <v>3470000</v>
       </c>
       <c r="C2" t="n">
-        <v>824</v>
+        <v>3498000</v>
       </c>
       <c r="D2" t="n">
-        <v>821</v>
+        <v>3460000</v>
       </c>
       <c r="E2" t="n">
-        <v>824</v>
+        <v>3494000</v>
       </c>
       <c r="F2" t="n">
-        <v>5501760.7655207</v>
+        <v>2745.80730806</v>
       </c>
       <c r="G2" t="n">
-        <v>4525640880.409657</v>
+        <v>9551875890.765751</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -532,25 +532,25 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44597.95833333334</v>
+        <v>44596.79166666666</v>
       </c>
       <c r="B3" t="n">
-        <v>823</v>
+        <v>3494000</v>
       </c>
       <c r="C3" t="n">
-        <v>828</v>
+        <v>3515000</v>
       </c>
       <c r="D3" t="n">
-        <v>821</v>
+        <v>3461000</v>
       </c>
       <c r="E3" t="n">
-        <v>823</v>
+        <v>3472000</v>
       </c>
       <c r="F3" t="n">
-        <v>10688607.23335673</v>
+        <v>4274.72617913</v>
       </c>
       <c r="G3" t="n">
-        <v>8800584275.185087</v>
+        <v>14900173468.37206</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -561,25 +561,25 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44598</v>
+        <v>44596.83333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>823</v>
+        <v>3471000</v>
       </c>
       <c r="C4" t="n">
-        <v>829</v>
+        <v>3485000</v>
       </c>
       <c r="D4" t="n">
-        <v>818</v>
+        <v>3458000</v>
       </c>
       <c r="E4" t="n">
-        <v>826</v>
+        <v>3470000</v>
       </c>
       <c r="F4" t="n">
-        <v>15437798.04320341</v>
+        <v>2375.02046396</v>
       </c>
       <c r="G4" t="n">
-        <v>12737837195.83699</v>
+        <v>8246262468.62989</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -590,25 +590,25 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44598.04166666666</v>
+        <v>44596.875</v>
       </c>
       <c r="B5" t="n">
-        <v>826</v>
+        <v>3470000</v>
       </c>
       <c r="C5" t="n">
-        <v>828</v>
+        <v>3491000</v>
       </c>
       <c r="D5" t="n">
-        <v>810</v>
+        <v>3469000</v>
       </c>
       <c r="E5" t="n">
-        <v>812</v>
+        <v>3475000</v>
       </c>
       <c r="F5" t="n">
-        <v>14076980.3795067</v>
+        <v>1565.0733277</v>
       </c>
       <c r="G5" t="n">
-        <v>11525922405.06268</v>
+        <v>5446780209.19908</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -619,2748 +619,8022 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44598.08333333334</v>
+        <v>44596.91666666666</v>
       </c>
       <c r="B6" t="n">
-        <v>813</v>
+        <v>3477000</v>
       </c>
       <c r="C6" t="n">
-        <v>818</v>
+        <v>3500000</v>
       </c>
       <c r="D6" t="n">
-        <v>801</v>
+        <v>3395000</v>
       </c>
       <c r="E6" t="n">
-        <v>815</v>
+        <v>3401000</v>
       </c>
       <c r="F6" t="n">
-        <v>20752366.02817254</v>
+        <v>6536.64253739</v>
       </c>
       <c r="G6" t="n">
-        <v>16771399399.41945</v>
+        <v>22479745468.74046</v>
       </c>
       <c r="H6" t="n">
-        <v>820</v>
+        <v>3462400</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>3533654.473543771</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3391145.526456229</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44598.125</v>
+        <v>44596.95833333334</v>
       </c>
       <c r="B7" t="n">
-        <v>815</v>
+        <v>3401000</v>
       </c>
       <c r="C7" t="n">
-        <v>820</v>
+        <v>3473000</v>
       </c>
       <c r="D7" t="n">
-        <v>813</v>
+        <v>3388000</v>
       </c>
       <c r="E7" t="n">
-        <v>816</v>
+        <v>3464000</v>
       </c>
       <c r="F7" t="n">
-        <v>3986338.68163655</v>
+        <v>7543.36267769</v>
       </c>
       <c r="G7" t="n">
-        <v>3254912179.811392</v>
+        <v>25879506548.6244</v>
       </c>
       <c r="H7" t="n">
-        <v>818.4</v>
+        <v>3456400</v>
       </c>
       <c r="I7" t="n">
-        <v>820</v>
+        <v>3462400</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>3518859.586934273</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3393940.413065727</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44598.16666666666</v>
+        <v>44597</v>
       </c>
       <c r="B8" t="n">
-        <v>817</v>
+        <v>3465000</v>
       </c>
       <c r="C8" t="n">
-        <v>817</v>
+        <v>3570000</v>
       </c>
       <c r="D8" t="n">
-        <v>813</v>
+        <v>3464000</v>
       </c>
       <c r="E8" t="n">
-        <v>814</v>
+        <v>3515000</v>
       </c>
       <c r="F8" t="n">
-        <v>2127428.57676523</v>
+        <v>13677.0377892</v>
       </c>
       <c r="G8" t="n">
-        <v>1733374737.412931</v>
+        <v>48207451818.86161</v>
       </c>
       <c r="H8" t="n">
-        <v>816.6</v>
+        <v>3465000</v>
       </c>
       <c r="I8" t="n">
-        <v>818.4</v>
+        <v>3456400</v>
       </c>
       <c r="J8" t="n">
-        <v>820</v>
+        <v>3462400</v>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>3546987.803971079</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3383012.196028921</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44598.20833333334</v>
+        <v>44597.04166666666</v>
       </c>
       <c r="B9" t="n">
-        <v>815</v>
+        <v>3514000</v>
       </c>
       <c r="C9" t="n">
-        <v>818</v>
+        <v>3610000</v>
       </c>
       <c r="D9" t="n">
-        <v>810</v>
+        <v>3512000</v>
       </c>
       <c r="E9" t="n">
-        <v>818</v>
+        <v>3580000</v>
       </c>
       <c r="F9" t="n">
-        <v>3197945.43623092</v>
+        <v>8591.50923046</v>
       </c>
       <c r="G9" t="n">
-        <v>2600432563.709659</v>
+        <v>30682093584.90947</v>
       </c>
       <c r="H9" t="n">
-        <v>815</v>
+        <v>3487000</v>
       </c>
       <c r="I9" t="n">
-        <v>816.6</v>
+        <v>3465000</v>
       </c>
       <c r="J9" t="n">
-        <v>818.4</v>
+        <v>3456400</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>3619295.124626722</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3354704.875373278</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44598.25</v>
+        <v>44597.08333333334</v>
       </c>
       <c r="B10" t="n">
-        <v>818</v>
+        <v>3581000</v>
       </c>
       <c r="C10" t="n">
-        <v>822</v>
+        <v>3607000</v>
       </c>
       <c r="D10" t="n">
-        <v>817</v>
+        <v>3572000</v>
       </c>
       <c r="E10" t="n">
-        <v>820</v>
+        <v>3605000</v>
       </c>
       <c r="F10" t="n">
-        <v>3191321.3173333</v>
+        <v>3259.28423589</v>
       </c>
       <c r="G10" t="n">
-        <v>2617255133.549512</v>
+        <v>11692749214.06778</v>
       </c>
       <c r="H10" t="n">
-        <v>816.6</v>
+        <v>3513000</v>
       </c>
       <c r="I10" t="n">
-        <v>815</v>
+        <v>3487000</v>
       </c>
       <c r="J10" t="n">
-        <v>816.6</v>
+        <v>3465000</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>3680038.917621014</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3345961.082378986</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44598.29166666666</v>
+        <v>44597.125</v>
       </c>
       <c r="B11" t="n">
-        <v>820</v>
+        <v>3606000</v>
       </c>
       <c r="C11" t="n">
-        <v>823</v>
+        <v>3619000</v>
       </c>
       <c r="D11" t="n">
-        <v>818</v>
+        <v>3587000</v>
       </c>
       <c r="E11" t="n">
-        <v>819</v>
+        <v>3595000</v>
       </c>
       <c r="F11" t="n">
-        <v>3176859.91784359</v>
+        <v>1607.22332678</v>
       </c>
       <c r="G11" t="n">
-        <v>2607843722.485422</v>
+        <v>5785583473.77897</v>
       </c>
       <c r="H11" t="n">
-        <v>817.4</v>
+        <v>3551800</v>
       </c>
       <c r="I11" t="n">
-        <v>816.6</v>
+        <v>3513000</v>
       </c>
       <c r="J11" t="n">
-        <v>815</v>
+        <v>3487000</v>
       </c>
       <c r="K11" t="n">
-        <v>818.7</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+        <v>3507100</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3672443.275817594</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3431156.724182406</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44598.33333333334</v>
+        <v>44597.16666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>818</v>
+        <v>3596000</v>
       </c>
       <c r="C12" t="n">
-        <v>823</v>
+        <v>3612000</v>
       </c>
       <c r="D12" t="n">
-        <v>816</v>
+        <v>3577000</v>
       </c>
       <c r="E12" t="n">
-        <v>817</v>
+        <v>3609000</v>
       </c>
       <c r="F12" t="n">
-        <v>5838295.99545272</v>
+        <v>1259.01258241</v>
       </c>
       <c r="G12" t="n">
-        <v>4787011887.034983</v>
+        <v>4524691724.78976</v>
       </c>
       <c r="H12" t="n">
-        <v>817.6</v>
+        <v>3580800</v>
       </c>
       <c r="I12" t="n">
-        <v>817.4</v>
+        <v>3551800</v>
       </c>
       <c r="J12" t="n">
-        <v>816.6</v>
+        <v>3513000</v>
       </c>
       <c r="K12" t="n">
-        <v>818</v>
+        <v>3518600</v>
       </c>
       <c r="L12" t="n">
-        <v>818.7</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>3657694.73323967</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3503905.26676033</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44598.375</v>
+        <v>44597.20833333334</v>
       </c>
       <c r="B13" t="n">
-        <v>817</v>
+        <v>3610000</v>
       </c>
       <c r="C13" t="n">
-        <v>822</v>
+        <v>3636000</v>
       </c>
       <c r="D13" t="n">
-        <v>817</v>
+        <v>3592000</v>
       </c>
       <c r="E13" t="n">
-        <v>820</v>
+        <v>3600000</v>
       </c>
       <c r="F13" t="n">
-        <v>10268424.15125444</v>
+        <v>1927.50332437</v>
       </c>
       <c r="G13" t="n">
-        <v>8412651675.961997</v>
+        <v>6962676619.53697</v>
       </c>
       <c r="H13" t="n">
-        <v>818.8</v>
+        <v>3597800</v>
       </c>
       <c r="I13" t="n">
-        <v>817.6</v>
+        <v>3580800</v>
       </c>
       <c r="J13" t="n">
-        <v>817.4</v>
+        <v>3551800</v>
       </c>
       <c r="K13" t="n">
-        <v>817.7</v>
+        <v>3531400</v>
       </c>
       <c r="L13" t="n">
-        <v>818</v>
+        <v>3620312.218904408</v>
       </c>
       <c r="M13" t="n">
-        <v>818.7</v>
+        <v>3575287.781095592</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44598.41666666666</v>
+        <v>44597.25</v>
       </c>
       <c r="B14" t="n">
-        <v>821</v>
+        <v>3601000</v>
       </c>
       <c r="C14" t="n">
-        <v>828</v>
+        <v>3616000</v>
       </c>
       <c r="D14" t="n">
-        <v>819</v>
+        <v>3584000</v>
       </c>
       <c r="E14" t="n">
-        <v>827</v>
+        <v>3613000</v>
       </c>
       <c r="F14" t="n">
-        <v>13258430.6963876</v>
+        <v>1061.31513598</v>
       </c>
       <c r="G14" t="n">
-        <v>10911067552.15338</v>
+        <v>3816114601.81443</v>
       </c>
       <c r="H14" t="n">
-        <v>820.6</v>
+        <v>3604400</v>
       </c>
       <c r="I14" t="n">
-        <v>818.8</v>
+        <v>3597800</v>
       </c>
       <c r="J14" t="n">
-        <v>817.6</v>
+        <v>3580800</v>
       </c>
       <c r="K14" t="n">
-        <v>817.8</v>
+        <v>3545700</v>
       </c>
       <c r="L14" t="n">
-        <v>817.7</v>
+        <v>3618654.823744964</v>
       </c>
       <c r="M14" t="n">
-        <v>818</v>
+        <v>3590145.176255036</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44598.45833333334</v>
+        <v>44597.29166666666</v>
       </c>
       <c r="B15" t="n">
-        <v>827</v>
+        <v>3613000</v>
       </c>
       <c r="C15" t="n">
-        <v>828</v>
+        <v>3615000</v>
       </c>
       <c r="D15" t="n">
-        <v>822</v>
+        <v>3586000</v>
       </c>
       <c r="E15" t="n">
-        <v>824</v>
+        <v>3607000</v>
       </c>
       <c r="F15" t="n">
-        <v>7972377.43006618</v>
+        <v>1745.85236246</v>
       </c>
       <c r="G15" t="n">
-        <v>6581189841.088503</v>
+        <v>6280560129.8007</v>
       </c>
       <c r="H15" t="n">
-        <v>821.4</v>
+        <v>3604800</v>
       </c>
       <c r="I15" t="n">
-        <v>820.6</v>
+        <v>3604400</v>
       </c>
       <c r="J15" t="n">
-        <v>818.8</v>
+        <v>3597800</v>
       </c>
       <c r="K15" t="n">
-        <v>819</v>
+        <v>3558900</v>
       </c>
       <c r="L15" t="n">
-        <v>817.8</v>
+        <v>3619249.913494551</v>
       </c>
       <c r="M15" t="n">
-        <v>817.7</v>
+        <v>3590350.086505449</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44598.5</v>
+        <v>44597.33333333334</v>
       </c>
       <c r="B16" t="n">
-        <v>824</v>
+        <v>3606000</v>
       </c>
       <c r="C16" t="n">
-        <v>827</v>
+        <v>3654000</v>
       </c>
       <c r="D16" t="n">
-        <v>823</v>
+        <v>3600000</v>
       </c>
       <c r="E16" t="n">
-        <v>824</v>
+        <v>3650000</v>
       </c>
       <c r="F16" t="n">
-        <v>7397188.90027201</v>
+        <v>3576.09093882</v>
       </c>
       <c r="G16" t="n">
-        <v>6099739058.616433</v>
+        <v>12968139611.55271</v>
       </c>
       <c r="H16" t="n">
-        <v>822.4</v>
+        <v>3615800</v>
       </c>
       <c r="I16" t="n">
-        <v>821.4</v>
+        <v>3604800</v>
       </c>
       <c r="J16" t="n">
-        <v>820.6</v>
+        <v>3604400</v>
       </c>
       <c r="K16" t="n">
-        <v>819.9</v>
+        <v>3583800</v>
       </c>
       <c r="L16" t="n">
-        <v>819</v>
+        <v>3655180.198069588</v>
       </c>
       <c r="M16" t="n">
-        <v>817.8</v>
+        <v>3576419.801930412</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44598.54166666666</v>
+        <v>44597.375</v>
       </c>
       <c r="B17" t="n">
-        <v>824</v>
+        <v>3651000</v>
       </c>
       <c r="C17" t="n">
-        <v>826</v>
+        <v>3708000</v>
       </c>
       <c r="D17" t="n">
-        <v>817</v>
+        <v>3618000</v>
       </c>
       <c r="E17" t="n">
-        <v>821</v>
+        <v>3652000</v>
       </c>
       <c r="F17" t="n">
-        <v>13350512.44908501</v>
+        <v>12899.00995406</v>
       </c>
       <c r="G17" t="n">
-        <v>10948044241.00477</v>
+        <v>47122083783.41764</v>
       </c>
       <c r="H17" t="n">
-        <v>823.2</v>
+        <v>3624400</v>
       </c>
       <c r="I17" t="n">
-        <v>822.4</v>
+        <v>3615800</v>
       </c>
       <c r="J17" t="n">
-        <v>821.4</v>
+        <v>3604800</v>
       </c>
       <c r="K17" t="n">
-        <v>820.4</v>
+        <v>3602600</v>
       </c>
       <c r="L17" t="n">
-        <v>819.9</v>
+        <v>3673848.963588735</v>
       </c>
       <c r="M17" t="n">
-        <v>819</v>
+        <v>3574951.036411265</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44598.58333333334</v>
+        <v>44597.41666666666</v>
       </c>
       <c r="B18" t="n">
-        <v>821</v>
+        <v>3652000</v>
       </c>
       <c r="C18" t="n">
-        <v>821</v>
+        <v>3656000</v>
       </c>
       <c r="D18" t="n">
-        <v>816</v>
+        <v>3613000</v>
       </c>
       <c r="E18" t="n">
-        <v>819</v>
+        <v>3631000</v>
       </c>
       <c r="F18" t="n">
-        <v>7770984.48499369</v>
+        <v>4609.89496453</v>
       </c>
       <c r="G18" t="n">
-        <v>6359452013.945595</v>
+        <v>16763306285.17327</v>
       </c>
       <c r="H18" t="n">
-        <v>823</v>
+        <v>3630600</v>
       </c>
       <c r="I18" t="n">
-        <v>823.2</v>
+        <v>3624400</v>
       </c>
       <c r="J18" t="n">
-        <v>822.4</v>
+        <v>3615800</v>
       </c>
       <c r="K18" t="n">
-        <v>820.9</v>
+        <v>3614200</v>
       </c>
       <c r="L18" t="n">
-        <v>820.4</v>
+        <v>3671845.60582656</v>
       </c>
       <c r="M18" t="n">
-        <v>819.9</v>
+        <v>3589354.39417344</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44598.625</v>
+        <v>44597.45833333334</v>
       </c>
       <c r="B19" t="n">
-        <v>819</v>
+        <v>3631000</v>
       </c>
       <c r="C19" t="n">
-        <v>820</v>
+        <v>3681000</v>
       </c>
       <c r="D19" t="n">
-        <v>816</v>
+        <v>3627000</v>
       </c>
       <c r="E19" t="n">
-        <v>818</v>
+        <v>3667000</v>
       </c>
       <c r="F19" t="n">
-        <v>6827329.0895486</v>
+        <v>3710.2035328</v>
       </c>
       <c r="G19" t="n">
-        <v>5582777967.896581</v>
+        <v>13582411100.02364</v>
       </c>
       <c r="H19" t="n">
-        <v>821.2</v>
+        <v>3641400</v>
       </c>
       <c r="I19" t="n">
-        <v>823</v>
+        <v>3630600</v>
       </c>
       <c r="J19" t="n">
-        <v>823.2</v>
+        <v>3624400</v>
       </c>
       <c r="K19" t="n">
-        <v>820.9</v>
+        <v>3622900</v>
       </c>
       <c r="L19" t="n">
-        <v>820.9</v>
+        <v>3687586.578136944</v>
       </c>
       <c r="M19" t="n">
-        <v>820.4</v>
+        <v>3595213.421863056</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44598.66666666666</v>
+        <v>44597.5</v>
       </c>
       <c r="B20" t="n">
-        <v>818</v>
+        <v>3666000</v>
       </c>
       <c r="C20" t="n">
-        <v>821</v>
+        <v>3681000</v>
       </c>
       <c r="D20" t="n">
-        <v>816</v>
+        <v>3650000</v>
       </c>
       <c r="E20" t="n">
-        <v>820</v>
+        <v>3666000</v>
       </c>
       <c r="F20" t="n">
-        <v>7387625.99854852</v>
+        <v>2240.29786799</v>
       </c>
       <c r="G20" t="n">
-        <v>6048798012.142473</v>
+        <v>8212571214.8187</v>
       </c>
       <c r="H20" t="n">
-        <v>820.4</v>
+        <v>3653200</v>
       </c>
       <c r="I20" t="n">
-        <v>821.2</v>
+        <v>3641400</v>
       </c>
       <c r="J20" t="n">
-        <v>823</v>
+        <v>3630600</v>
       </c>
       <c r="K20" t="n">
-        <v>820.9</v>
+        <v>3629000</v>
       </c>
       <c r="L20" t="n">
-        <v>820.9</v>
+        <v>3682505.289624912</v>
       </c>
       <c r="M20" t="n">
-        <v>820.9</v>
+        <v>3623894.710375088</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44598.70833333334</v>
+        <v>44597.54166666666</v>
       </c>
       <c r="B21" t="n">
-        <v>821</v>
+        <v>3667000</v>
       </c>
       <c r="C21" t="n">
-        <v>822</v>
+        <v>3706000</v>
       </c>
       <c r="D21" t="n">
-        <v>818</v>
+        <v>3659000</v>
       </c>
       <c r="E21" t="n">
-        <v>822</v>
+        <v>3680000</v>
       </c>
       <c r="F21" t="n">
-        <v>4572756.18920793</v>
+        <v>3227.11079427</v>
       </c>
       <c r="G21" t="n">
-        <v>3749392729.327725</v>
+        <v>11902512271.52844</v>
       </c>
       <c r="H21" t="n">
-        <v>820</v>
+        <v>3659200</v>
       </c>
       <c r="I21" t="n">
-        <v>820.4</v>
+        <v>3653200</v>
       </c>
       <c r="J21" t="n">
-        <v>821.2</v>
+        <v>3641400</v>
       </c>
       <c r="K21" t="n">
-        <v>821.2</v>
+        <v>3637500</v>
       </c>
       <c r="L21" t="n">
-        <v>820.9</v>
+        <v>3696439.763694202</v>
       </c>
       <c r="M21" t="n">
-        <v>820.9</v>
+        <v>3621960.236305798</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44598.75</v>
+        <v>44597.58333333334</v>
       </c>
       <c r="B22" t="n">
-        <v>822</v>
+        <v>3680000</v>
       </c>
       <c r="C22" t="n">
-        <v>823</v>
+        <v>3704000</v>
       </c>
       <c r="D22" t="n">
-        <v>821</v>
+        <v>3680000</v>
       </c>
       <c r="E22" t="n">
-        <v>822</v>
+        <v>3695000</v>
       </c>
       <c r="F22" t="n">
-        <v>3396309.70369685</v>
+        <v>2376.10094002</v>
       </c>
       <c r="G22" t="n">
-        <v>2791808614.339949</v>
+        <v>8779338739.865129</v>
       </c>
       <c r="H22" t="n">
-        <v>820.2</v>
+        <v>3667800</v>
       </c>
       <c r="I22" t="n">
-        <v>820</v>
+        <v>3659200</v>
       </c>
       <c r="J22" t="n">
-        <v>820.4</v>
+        <v>3653200</v>
       </c>
       <c r="K22" t="n">
-        <v>821.7</v>
+        <v>3646100</v>
       </c>
       <c r="L22" t="n">
-        <v>821.2</v>
+        <v>3715200.42193905</v>
       </c>
       <c r="M22" t="n">
-        <v>820.9</v>
+        <v>3620399.57806095</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44598.79166666666</v>
+        <v>44597.625</v>
       </c>
       <c r="B23" t="n">
-        <v>822</v>
+        <v>3696000</v>
       </c>
       <c r="C23" t="n">
-        <v>823</v>
+        <v>3705000</v>
       </c>
       <c r="D23" t="n">
-        <v>818</v>
+        <v>3668000</v>
       </c>
       <c r="E23" t="n">
-        <v>820</v>
+        <v>3670000</v>
       </c>
       <c r="F23" t="n">
-        <v>5582316.42511029</v>
+        <v>2768.98225243</v>
       </c>
       <c r="G23" t="n">
-        <v>4580439350.096862</v>
+        <v>10222542988.12152</v>
       </c>
       <c r="H23" t="n">
-        <v>820.4</v>
+        <v>3675600</v>
       </c>
       <c r="I23" t="n">
-        <v>820.2</v>
+        <v>3667800</v>
       </c>
       <c r="J23" t="n">
-        <v>820</v>
+        <v>3659200</v>
       </c>
       <c r="K23" t="n">
-        <v>821.7</v>
+        <v>3653100</v>
       </c>
       <c r="L23" t="n">
-        <v>821.7</v>
+        <v>3699955.697485393</v>
       </c>
       <c r="M23" t="n">
-        <v>821.2</v>
+        <v>3651244.302514607</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44598.83333333334</v>
+        <v>44597.66666666666</v>
       </c>
       <c r="B24" t="n">
-        <v>820</v>
+        <v>3671000</v>
       </c>
       <c r="C24" t="n">
-        <v>820</v>
+        <v>3680000</v>
       </c>
       <c r="D24" t="n">
-        <v>818</v>
+        <v>3658000</v>
       </c>
       <c r="E24" t="n">
-        <v>819</v>
+        <v>3663000</v>
       </c>
       <c r="F24" t="n">
-        <v>4700655.35734164</v>
+        <v>2551.82660772</v>
       </c>
       <c r="G24" t="n">
-        <v>3850878127.503596</v>
+        <v>9356885669.09897</v>
       </c>
       <c r="H24" t="n">
-        <v>820.6</v>
+        <v>3674800</v>
       </c>
       <c r="I24" t="n">
-        <v>820.4</v>
+        <v>3675600</v>
       </c>
       <c r="J24" t="n">
-        <v>820.2</v>
+        <v>3667800</v>
       </c>
       <c r="K24" t="n">
-        <v>820.9</v>
+        <v>3658100</v>
       </c>
       <c r="L24" t="n">
-        <v>821.7</v>
+        <v>3700776.912826585</v>
       </c>
       <c r="M24" t="n">
-        <v>821.7</v>
+        <v>3648823.087173415</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44598.875</v>
+        <v>44597.70833333334</v>
       </c>
       <c r="B25" t="n">
-        <v>819</v>
+        <v>3663000</v>
       </c>
       <c r="C25" t="n">
-        <v>821</v>
+        <v>3688000</v>
       </c>
       <c r="D25" t="n">
-        <v>818</v>
+        <v>3658000</v>
       </c>
       <c r="E25" t="n">
-        <v>820</v>
+        <v>3683000</v>
       </c>
       <c r="F25" t="n">
-        <v>4931364.86699178</v>
+        <v>1996.9251034</v>
       </c>
       <c r="G25" t="n">
-        <v>4041965324.930636</v>
+        <v>7334531290.84188</v>
       </c>
       <c r="H25" t="n">
-        <v>820.6</v>
+        <v>3678200</v>
       </c>
       <c r="I25" t="n">
-        <v>820.6</v>
+        <v>3674800</v>
       </c>
       <c r="J25" t="n">
-        <v>820.4</v>
+        <v>3675600</v>
       </c>
       <c r="K25" t="n">
-        <v>820.5</v>
+        <v>3665700</v>
       </c>
       <c r="L25" t="n">
-        <v>820.9</v>
+        <v>3702833.310780324</v>
       </c>
       <c r="M25" t="n">
-        <v>821.7</v>
+        <v>3653566.689219676</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44598.91666666666</v>
+        <v>44597.75</v>
       </c>
       <c r="B26" t="n">
-        <v>820</v>
+        <v>3683000</v>
       </c>
       <c r="C26" t="n">
-        <v>825</v>
+        <v>3707000</v>
       </c>
       <c r="D26" t="n">
-        <v>819</v>
+        <v>3674000</v>
       </c>
       <c r="E26" t="n">
-        <v>824</v>
+        <v>3700000</v>
       </c>
       <c r="F26" t="n">
-        <v>7956007.36441506</v>
+        <v>2662.13057505</v>
       </c>
       <c r="G26" t="n">
-        <v>6538959684.008514</v>
+        <v>9826879412.951031</v>
       </c>
       <c r="H26" t="n">
-        <v>821</v>
+        <v>3682200</v>
       </c>
       <c r="I26" t="n">
-        <v>820.6</v>
+        <v>3678200</v>
       </c>
       <c r="J26" t="n">
-        <v>820.6</v>
+        <v>3674800</v>
       </c>
       <c r="K26" t="n">
-        <v>820.5</v>
+        <v>3670700</v>
       </c>
       <c r="L26" t="n">
-        <v>820.5</v>
+        <v>3713803.797240205</v>
       </c>
       <c r="M26" t="n">
-        <v>820.9</v>
+        <v>3650596.202759795</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44598.95833333334</v>
+        <v>44597.79166666666</v>
       </c>
       <c r="B27" t="n">
-        <v>824</v>
+        <v>3701000</v>
       </c>
       <c r="C27" t="n">
-        <v>835</v>
+        <v>3714000</v>
       </c>
       <c r="D27" t="n">
-        <v>811</v>
+        <v>3687000</v>
       </c>
       <c r="E27" t="n">
-        <v>816</v>
+        <v>3699000</v>
       </c>
       <c r="F27" t="n">
-        <v>39569324.22646212</v>
+        <v>1911.09349849</v>
       </c>
       <c r="G27" t="n">
-        <v>32524111522.04716</v>
+        <v>7071272996.76198</v>
       </c>
       <c r="H27" t="n">
-        <v>819.8</v>
+        <v>3683000</v>
       </c>
       <c r="I27" t="n">
-        <v>821</v>
+        <v>3682200</v>
       </c>
       <c r="J27" t="n">
-        <v>820.6</v>
+        <v>3678200</v>
       </c>
       <c r="K27" t="n">
-        <v>820</v>
+        <v>3675400</v>
       </c>
       <c r="L27" t="n">
-        <v>820.5</v>
+        <v>3716376.638536557</v>
       </c>
       <c r="M27" t="n">
-        <v>820.5</v>
+        <v>3649623.361463443</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44599</v>
+        <v>44597.83333333334</v>
       </c>
       <c r="B28" t="n">
-        <v>814</v>
+        <v>3699000</v>
       </c>
       <c r="C28" t="n">
-        <v>822</v>
+        <v>3704000</v>
       </c>
       <c r="D28" t="n">
-        <v>808</v>
+        <v>3682000</v>
       </c>
       <c r="E28" t="n">
-        <v>818</v>
+        <v>3691000</v>
       </c>
       <c r="F28" t="n">
-        <v>19196811.04944596</v>
+        <v>1670.08892401</v>
       </c>
       <c r="G28" t="n">
-        <v>15637000164.12719</v>
+        <v>6163726278.72361</v>
       </c>
       <c r="H28" t="n">
-        <v>819.4</v>
+        <v>3687200</v>
       </c>
       <c r="I28" t="n">
-        <v>819.8</v>
+        <v>3683000</v>
       </c>
       <c r="J28" t="n">
-        <v>821</v>
+        <v>3682200</v>
       </c>
       <c r="K28" t="n">
-        <v>819.9</v>
+        <v>3681400</v>
       </c>
       <c r="L28" t="n">
-        <v>820</v>
+        <v>3717544.686520048</v>
       </c>
       <c r="M28" t="n">
-        <v>820.5</v>
+        <v>3656855.313479952</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44599.04166666666</v>
+        <v>44597.875</v>
       </c>
       <c r="B29" t="n">
-        <v>818</v>
+        <v>3691000</v>
       </c>
       <c r="C29" t="n">
-        <v>824</v>
+        <v>3703000</v>
       </c>
       <c r="D29" t="n">
-        <v>816</v>
+        <v>3679000</v>
       </c>
       <c r="E29" t="n">
-        <v>823</v>
+        <v>3683000</v>
       </c>
       <c r="F29" t="n">
-        <v>6186550.61551393</v>
+        <v>2236.74940112</v>
       </c>
       <c r="G29" t="n">
-        <v>5073267391.827756</v>
+        <v>8253097941.93795</v>
       </c>
       <c r="H29" t="n">
-        <v>820.2</v>
+        <v>3691200</v>
       </c>
       <c r="I29" t="n">
-        <v>819.4</v>
+        <v>3687200</v>
       </c>
       <c r="J29" t="n">
-        <v>819.8</v>
+        <v>3683000</v>
       </c>
       <c r="K29" t="n">
-        <v>820.4</v>
+        <v>3683000</v>
       </c>
       <c r="L29" t="n">
-        <v>819.9</v>
+        <v>3707716.65825765</v>
       </c>
       <c r="M29" t="n">
-        <v>820</v>
+        <v>3674683.34174235</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44599.08333333334</v>
+        <v>44597.91666666666</v>
       </c>
       <c r="B30" t="n">
-        <v>822</v>
+        <v>3683000</v>
       </c>
       <c r="C30" t="n">
-        <v>824</v>
+        <v>3711000</v>
       </c>
       <c r="D30" t="n">
-        <v>820</v>
+        <v>3681000</v>
       </c>
       <c r="E30" t="n">
-        <v>821</v>
+        <v>3709000</v>
       </c>
       <c r="F30" t="n">
-        <v>2008309.76525149</v>
+        <v>1783.17525703</v>
       </c>
       <c r="G30" t="n">
-        <v>1650922488.503147</v>
+        <v>6593152063.94198</v>
       </c>
       <c r="H30" t="n">
-        <v>820.4</v>
+        <v>3696400</v>
       </c>
       <c r="I30" t="n">
-        <v>820.2</v>
+        <v>3691200</v>
       </c>
       <c r="J30" t="n">
-        <v>819.4</v>
+        <v>3687200</v>
       </c>
       <c r="K30" t="n">
-        <v>820.5</v>
+        <v>3687300</v>
       </c>
       <c r="L30" t="n">
-        <v>820.4</v>
+        <v>3716077.398201998</v>
       </c>
       <c r="M30" t="n">
-        <v>819.9</v>
+        <v>3676722.601798002</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44599.125</v>
+        <v>44597.95833333334</v>
       </c>
       <c r="B31" t="n">
-        <v>821</v>
+        <v>3708000</v>
       </c>
       <c r="C31" t="n">
-        <v>822</v>
+        <v>3728000</v>
       </c>
       <c r="D31" t="n">
-        <v>818</v>
+        <v>3689000</v>
       </c>
       <c r="E31" t="n">
-        <v>819</v>
+        <v>3705000</v>
       </c>
       <c r="F31" t="n">
-        <v>1710871.47688945</v>
+        <v>2343.33289869</v>
       </c>
       <c r="G31" t="n">
-        <v>1402787766.447714</v>
+        <v>8678302977.4076</v>
       </c>
       <c r="H31" t="n">
-        <v>819.4</v>
+        <v>3697400</v>
       </c>
       <c r="I31" t="n">
-        <v>820.4</v>
+        <v>3696400</v>
       </c>
       <c r="J31" t="n">
-        <v>820.2</v>
+        <v>3691200</v>
       </c>
       <c r="K31" t="n">
-        <v>820.2</v>
+        <v>3689800</v>
       </c>
       <c r="L31" t="n">
-        <v>820.5</v>
+        <v>3718452.315787105</v>
       </c>
       <c r="M31" t="n">
-        <v>820.4</v>
+        <v>3676347.684212895</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44599.16666666666</v>
+        <v>44598</v>
       </c>
       <c r="B32" t="n">
-        <v>820</v>
+        <v>3706000</v>
       </c>
       <c r="C32" t="n">
-        <v>823</v>
+        <v>3759000</v>
       </c>
       <c r="D32" t="n">
-        <v>819</v>
+        <v>3687000</v>
       </c>
       <c r="E32" t="n">
-        <v>821</v>
+        <v>3741000</v>
       </c>
       <c r="F32" t="n">
-        <v>1331665.32811765</v>
+        <v>4122.66238498</v>
       </c>
       <c r="G32" t="n">
-        <v>1093420103.590324</v>
+        <v>15386331306.14004</v>
       </c>
       <c r="H32" t="n">
-        <v>820.4</v>
+        <v>3705800</v>
       </c>
       <c r="I32" t="n">
-        <v>819.4</v>
+        <v>3697400</v>
       </c>
       <c r="J32" t="n">
-        <v>820.4</v>
+        <v>3696400</v>
       </c>
       <c r="K32" t="n">
-        <v>820.1</v>
+        <v>3694400</v>
       </c>
       <c r="L32" t="n">
-        <v>820.2</v>
+        <v>3750395.96394294</v>
       </c>
       <c r="M32" t="n">
-        <v>820.5</v>
+        <v>3661204.03605706</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44599.20833333334</v>
+        <v>44598.04166666666</v>
       </c>
       <c r="B33" t="n">
-        <v>822</v>
+        <v>3741000</v>
       </c>
       <c r="C33" t="n">
-        <v>825</v>
+        <v>3744000</v>
       </c>
       <c r="D33" t="n">
-        <v>820</v>
+        <v>3681000</v>
       </c>
       <c r="E33" t="n">
-        <v>823</v>
+        <v>3689000</v>
       </c>
       <c r="F33" t="n">
-        <v>2962335.32308309</v>
+        <v>2421.20489</v>
       </c>
       <c r="G33" t="n">
-        <v>2436897203.682343</v>
+        <v>8985688824.67465</v>
       </c>
       <c r="H33" t="n">
-        <v>821.4</v>
+        <v>3705400</v>
       </c>
       <c r="I33" t="n">
-        <v>820.4</v>
+        <v>3705800</v>
       </c>
       <c r="J33" t="n">
-        <v>819.4</v>
+        <v>3697400</v>
       </c>
       <c r="K33" t="n">
-        <v>820.4</v>
+        <v>3696300</v>
       </c>
       <c r="L33" t="n">
-        <v>820.1</v>
+        <v>3750690.175535098</v>
       </c>
       <c r="M33" t="n">
-        <v>820.2</v>
+        <v>3660109.824464902</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44599.25</v>
+        <v>44598.08333333334</v>
       </c>
       <c r="B34" t="n">
-        <v>823</v>
+        <v>3687000</v>
       </c>
       <c r="C34" t="n">
-        <v>830</v>
+        <v>3705000</v>
       </c>
       <c r="D34" t="n">
-        <v>821</v>
+        <v>3635000</v>
       </c>
       <c r="E34" t="n">
-        <v>828</v>
+        <v>3693000</v>
       </c>
       <c r="F34" t="n">
-        <v>3922631.63704358</v>
+        <v>3711.50740107</v>
       </c>
       <c r="G34" t="n">
-        <v>3242986940.117319</v>
+        <v>13612137647.61499</v>
       </c>
       <c r="H34" t="n">
-        <v>822.4</v>
+        <v>3707400</v>
       </c>
       <c r="I34" t="n">
-        <v>821.4</v>
+        <v>3705400</v>
       </c>
       <c r="J34" t="n">
-        <v>820.4</v>
+        <v>3705800</v>
       </c>
       <c r="K34" t="n">
-        <v>821.3</v>
+        <v>3699300</v>
       </c>
       <c r="L34" t="n">
-        <v>820.4</v>
+        <v>3748426.820495866</v>
       </c>
       <c r="M34" t="n">
-        <v>820.1</v>
+        <v>3666373.179504134</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44599.29166666666</v>
+        <v>44598.125</v>
       </c>
       <c r="B35" t="n">
-        <v>828</v>
+        <v>3695000</v>
       </c>
       <c r="C35" t="n">
-        <v>828</v>
+        <v>3709000</v>
       </c>
       <c r="D35" t="n">
-        <v>823</v>
+        <v>3685000</v>
       </c>
       <c r="E35" t="n">
-        <v>825</v>
+        <v>3699000</v>
       </c>
       <c r="F35" t="n">
-        <v>3103219.96994358</v>
+        <v>617.5981233799999</v>
       </c>
       <c r="G35" t="n">
-        <v>2563777199.955386</v>
+        <v>2284319064.99288</v>
       </c>
       <c r="H35" t="n">
-        <v>823.2</v>
+        <v>3705400</v>
       </c>
       <c r="I35" t="n">
-        <v>822.4</v>
+        <v>3707400</v>
       </c>
       <c r="J35" t="n">
-        <v>821.4</v>
+        <v>3705400</v>
       </c>
       <c r="K35" t="n">
-        <v>821.8</v>
+        <v>3700900</v>
       </c>
       <c r="L35" t="n">
-        <v>821.3</v>
+        <v>3747007.691596627</v>
       </c>
       <c r="M35" t="n">
-        <v>820.4</v>
+        <v>3663792.308403373</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44599.33333333334</v>
+        <v>44598.16666666666</v>
       </c>
       <c r="B36" t="n">
-        <v>826</v>
+        <v>3697000</v>
       </c>
       <c r="C36" t="n">
-        <v>839</v>
+        <v>3707000</v>
       </c>
       <c r="D36" t="n">
-        <v>824</v>
+        <v>3684000</v>
       </c>
       <c r="E36" t="n">
-        <v>833</v>
+        <v>3701000</v>
       </c>
       <c r="F36" t="n">
-        <v>17385676.41432817</v>
+        <v>485.32825577</v>
       </c>
       <c r="G36" t="n">
-        <v>14482311997.75616</v>
+        <v>1794197475.41521</v>
       </c>
       <c r="H36" t="n">
-        <v>826</v>
+        <v>3704600</v>
       </c>
       <c r="I36" t="n">
-        <v>823.2</v>
+        <v>3705400</v>
       </c>
       <c r="J36" t="n">
-        <v>822.4</v>
+        <v>3707400</v>
       </c>
       <c r="K36" t="n">
-        <v>822.7</v>
+        <v>3701000</v>
       </c>
       <c r="L36" t="n">
-        <v>821.8</v>
+        <v>3746399.521528362</v>
       </c>
       <c r="M36" t="n">
-        <v>821.3</v>
+        <v>3662800.478471638</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44599.375</v>
+        <v>44598.20833333334</v>
       </c>
       <c r="B37" t="n">
-        <v>834</v>
+        <v>3701000</v>
       </c>
       <c r="C37" t="n">
-        <v>835</v>
+        <v>3708000</v>
       </c>
       <c r="D37" t="n">
-        <v>823</v>
+        <v>3675000</v>
       </c>
       <c r="E37" t="n">
-        <v>831</v>
+        <v>3707000</v>
       </c>
       <c r="F37" t="n">
-        <v>14954287.93044556</v>
+        <v>352.57837927</v>
       </c>
       <c r="G37" t="n">
-        <v>12396396717.06166</v>
+        <v>1301706829.28893</v>
       </c>
       <c r="H37" t="n">
-        <v>828</v>
+        <v>3697800</v>
       </c>
       <c r="I37" t="n">
-        <v>826</v>
+        <v>3704600</v>
       </c>
       <c r="J37" t="n">
-        <v>823.2</v>
+        <v>3705400</v>
       </c>
       <c r="K37" t="n">
-        <v>824.2</v>
+        <v>3701800</v>
       </c>
       <c r="L37" t="n">
-        <v>822.7</v>
+        <v>3711828.5423334</v>
       </c>
       <c r="M37" t="n">
-        <v>821.8</v>
+        <v>3683771.4576666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44599.41666666666</v>
+        <v>44598.25</v>
       </c>
       <c r="B38" t="n">
-        <v>832</v>
+        <v>3706000</v>
       </c>
       <c r="C38" t="n">
-        <v>848</v>
+        <v>3725000</v>
       </c>
       <c r="D38" t="n">
-        <v>829</v>
+        <v>3697000</v>
       </c>
       <c r="E38" t="n">
-        <v>843</v>
+        <v>3716000</v>
       </c>
       <c r="F38" t="n">
-        <v>15642855.53845352</v>
+        <v>924.57811806</v>
       </c>
       <c r="G38" t="n">
-        <v>13138908283.78493</v>
+        <v>3435979941.12461</v>
       </c>
       <c r="H38" t="n">
-        <v>832</v>
+        <v>3703200</v>
       </c>
       <c r="I38" t="n">
-        <v>828</v>
+        <v>3697800</v>
       </c>
       <c r="J38" t="n">
-        <v>826</v>
+        <v>3704600</v>
       </c>
       <c r="K38" t="n">
-        <v>826.7</v>
+        <v>3704300</v>
       </c>
       <c r="L38" t="n">
-        <v>824.2</v>
+        <v>3720658.522274236</v>
       </c>
       <c r="M38" t="n">
-        <v>822.7</v>
+        <v>3685741.477725764</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44599.45833333334</v>
+        <v>44598.29166666666</v>
       </c>
       <c r="B39" t="n">
-        <v>843</v>
+        <v>3716000</v>
       </c>
       <c r="C39" t="n">
-        <v>895</v>
+        <v>3730000</v>
       </c>
       <c r="D39" t="n">
-        <v>842</v>
+        <v>3698000</v>
       </c>
       <c r="E39" t="n">
-        <v>874</v>
+        <v>3704000</v>
       </c>
       <c r="F39" t="n">
-        <v>79590306.81122957</v>
+        <v>881.86075007</v>
       </c>
       <c r="G39" t="n">
-        <v>69600387567.86871</v>
+        <v>3276255898.61748</v>
       </c>
       <c r="H39" t="n">
-        <v>841.2</v>
+        <v>3705400</v>
       </c>
       <c r="I39" t="n">
-        <v>832</v>
+        <v>3703200</v>
       </c>
       <c r="J39" t="n">
-        <v>828</v>
+        <v>3697800</v>
       </c>
       <c r="K39" t="n">
-        <v>831.8</v>
+        <v>3706400</v>
       </c>
       <c r="L39" t="n">
-        <v>826.7</v>
+        <v>3718711.649033835</v>
       </c>
       <c r="M39" t="n">
-        <v>824.2</v>
+        <v>3692088.350966165</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44599.5</v>
+        <v>44598.33333333334</v>
       </c>
       <c r="B40" t="n">
-        <v>873</v>
+        <v>3703000</v>
       </c>
       <c r="C40" t="n">
-        <v>893</v>
+        <v>3709000</v>
       </c>
       <c r="D40" t="n">
-        <v>872</v>
+        <v>3691000</v>
       </c>
       <c r="E40" t="n">
-        <v>885</v>
+        <v>3695000</v>
       </c>
       <c r="F40" t="n">
-        <v>41375722.46153775</v>
+        <v>1197.88862993</v>
       </c>
       <c r="G40" t="n">
-        <v>36535801916.69628</v>
+        <v>4432815714.04363</v>
       </c>
       <c r="H40" t="n">
-        <v>853.2</v>
+        <v>3704600</v>
       </c>
       <c r="I40" t="n">
-        <v>841.2</v>
+        <v>3705400</v>
       </c>
       <c r="J40" t="n">
-        <v>832</v>
+        <v>3703200</v>
       </c>
       <c r="K40" t="n">
-        <v>838.2</v>
+        <v>3705000</v>
       </c>
       <c r="L40" t="n">
-        <v>831.8</v>
+        <v>3720130.614926653</v>
       </c>
       <c r="M40" t="n">
-        <v>826.7</v>
+        <v>3689069.385073347</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44599.54166666666</v>
+        <v>44598.375</v>
       </c>
       <c r="B41" t="n">
-        <v>886</v>
+        <v>3697000</v>
       </c>
       <c r="C41" t="n">
-        <v>891</v>
+        <v>3719000</v>
       </c>
       <c r="D41" t="n">
-        <v>879</v>
+        <v>3693000</v>
       </c>
       <c r="E41" t="n">
-        <v>884</v>
+        <v>3714000</v>
       </c>
       <c r="F41" t="n">
-        <v>20277602.60788729</v>
+        <v>2264.13199246</v>
       </c>
       <c r="G41" t="n">
-        <v>17913581357.31569</v>
+        <v>8396673318.1944</v>
       </c>
       <c r="H41" t="n">
-        <v>863.4</v>
+        <v>3707200</v>
       </c>
       <c r="I41" t="n">
-        <v>853.2</v>
+        <v>3704600</v>
       </c>
       <c r="J41" t="n">
-        <v>841.2</v>
+        <v>3705400</v>
       </c>
       <c r="K41" t="n">
-        <v>844.7</v>
+        <v>3705900</v>
       </c>
       <c r="L41" t="n">
-        <v>838.2</v>
+        <v>3724016.658407662</v>
       </c>
       <c r="M41" t="n">
-        <v>831.8</v>
+        <v>3690383.341592338</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44599.58333333334</v>
+        <v>44598.41666666666</v>
       </c>
       <c r="B42" t="n">
-        <v>885</v>
+        <v>3715000</v>
       </c>
       <c r="C42" t="n">
-        <v>917</v>
+        <v>3726000</v>
       </c>
       <c r="D42" t="n">
-        <v>884</v>
+        <v>3705000</v>
       </c>
       <c r="E42" t="n">
-        <v>911</v>
+        <v>3722000</v>
       </c>
       <c r="F42" t="n">
-        <v>77852038.80589813</v>
+        <v>2255.27737783</v>
       </c>
       <c r="G42" t="n">
-        <v>70270272786.94209</v>
+        <v>8376226252.362</v>
       </c>
       <c r="H42" t="n">
-        <v>879.4</v>
+        <v>3710200</v>
       </c>
       <c r="I42" t="n">
-        <v>863.4</v>
+        <v>3707200</v>
       </c>
       <c r="J42" t="n">
-        <v>853.2</v>
+        <v>3704600</v>
       </c>
       <c r="K42" t="n">
-        <v>853.7</v>
+        <v>3704000</v>
       </c>
       <c r="L42" t="n">
-        <v>844.7</v>
+        <v>3731572.880011828</v>
       </c>
       <c r="M42" t="n">
-        <v>838.2</v>
+        <v>3688827.119988172</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44599.625</v>
+        <v>44598.45833333334</v>
       </c>
       <c r="B43" t="n">
-        <v>911</v>
+        <v>3722000</v>
       </c>
       <c r="C43" t="n">
-        <v>919</v>
+        <v>3725000</v>
       </c>
       <c r="D43" t="n">
-        <v>904</v>
+        <v>3707000</v>
       </c>
       <c r="E43" t="n">
-        <v>913</v>
+        <v>3716000</v>
       </c>
       <c r="F43" t="n">
-        <v>40126152.92022762</v>
+        <v>2253.696055</v>
       </c>
       <c r="G43" t="n">
-        <v>36557854375.35898</v>
+        <v>8373191987.5046</v>
       </c>
       <c r="H43" t="n">
-        <v>893.4</v>
+        <v>3710200</v>
       </c>
       <c r="I43" t="n">
-        <v>879.4</v>
+        <v>3710200</v>
       </c>
       <c r="J43" t="n">
-        <v>863.4</v>
+        <v>3707200</v>
       </c>
       <c r="K43" t="n">
-        <v>862.7</v>
+        <v>3706700</v>
       </c>
       <c r="L43" t="n">
-        <v>853.7</v>
+        <v>3731572.880011828</v>
       </c>
       <c r="M43" t="n">
-        <v>844.7</v>
+        <v>3688827.119988172</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44599.66666666666</v>
+        <v>44598.5</v>
       </c>
       <c r="B44" t="n">
-        <v>912</v>
+        <v>3715000</v>
       </c>
       <c r="C44" t="n">
-        <v>924</v>
+        <v>3718000</v>
       </c>
       <c r="D44" t="n">
-        <v>906</v>
+        <v>3702000</v>
       </c>
       <c r="E44" t="n">
-        <v>923</v>
+        <v>3702000</v>
       </c>
       <c r="F44" t="n">
-        <v>25527909.57322989</v>
+        <v>1069.01904453</v>
       </c>
       <c r="G44" t="n">
-        <v>23289987483.69337</v>
+        <v>3966278129.36671</v>
       </c>
       <c r="H44" t="n">
-        <v>903.2</v>
+        <v>3709800</v>
       </c>
       <c r="I44" t="n">
-        <v>893.4</v>
+        <v>3710200</v>
       </c>
       <c r="J44" t="n">
-        <v>879.4</v>
+        <v>3710200</v>
       </c>
       <c r="K44" t="n">
-        <v>872.2</v>
+        <v>3707600</v>
       </c>
       <c r="L44" t="n">
-        <v>862.7</v>
+        <v>3731818.174311236</v>
       </c>
       <c r="M44" t="n">
-        <v>853.7</v>
+        <v>3687781.825688764</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44599.70833333334</v>
+        <v>44598.54166666666</v>
       </c>
       <c r="B45" t="n">
-        <v>923</v>
+        <v>3702000</v>
       </c>
       <c r="C45" t="n">
-        <v>944</v>
+        <v>3707000</v>
       </c>
       <c r="D45" t="n">
-        <v>915</v>
+        <v>3672000</v>
       </c>
       <c r="E45" t="n">
-        <v>938</v>
+        <v>3698000</v>
       </c>
       <c r="F45" t="n">
-        <v>84999600.74855311</v>
+        <v>3212.13151212</v>
       </c>
       <c r="G45" t="n">
-        <v>79246619212.39371</v>
+        <v>11855609971.23419</v>
       </c>
       <c r="H45" t="n">
-        <v>913.8</v>
+        <v>3710400</v>
       </c>
       <c r="I45" t="n">
-        <v>903.2</v>
+        <v>3709800</v>
       </c>
       <c r="J45" t="n">
-        <v>893.4</v>
+        <v>3710200</v>
       </c>
       <c r="K45" t="n">
-        <v>883.5</v>
+        <v>3707500</v>
       </c>
       <c r="L45" t="n">
-        <v>872.2</v>
+        <v>3730479.840636818</v>
       </c>
       <c r="M45" t="n">
-        <v>862.7</v>
+        <v>3690320.159363182</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44599.75</v>
+        <v>44598.58333333334</v>
       </c>
       <c r="B46" t="n">
-        <v>938</v>
+        <v>3697000</v>
       </c>
       <c r="C46" t="n">
-        <v>944</v>
+        <v>3709000</v>
       </c>
       <c r="D46" t="n">
-        <v>912</v>
+        <v>3693000</v>
       </c>
       <c r="E46" t="n">
-        <v>918</v>
+        <v>3705000</v>
       </c>
       <c r="F46" t="n">
-        <v>71127913.58506799</v>
+        <v>784.6570674</v>
       </c>
       <c r="G46" t="n">
-        <v>65707876168.71356</v>
+        <v>2902868830.42863</v>
       </c>
       <c r="H46" t="n">
-        <v>920.6</v>
+        <v>3708600</v>
       </c>
       <c r="I46" t="n">
-        <v>913.8</v>
+        <v>3710400</v>
       </c>
       <c r="J46" t="n">
-        <v>903.2</v>
+        <v>3709800</v>
       </c>
       <c r="K46" t="n">
-        <v>892</v>
+        <v>3707900</v>
       </c>
       <c r="L46" t="n">
-        <v>883.5</v>
+        <v>3728679.840636818</v>
       </c>
       <c r="M46" t="n">
-        <v>872.2</v>
+        <v>3688520.159363182</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44599.79166666666</v>
+        <v>44598.625</v>
       </c>
       <c r="B47" t="n">
-        <v>918</v>
+        <v>3705000</v>
       </c>
       <c r="C47" t="n">
-        <v>938</v>
+        <v>3705000</v>
       </c>
       <c r="D47" t="n">
-        <v>918</v>
+        <v>3690000</v>
       </c>
       <c r="E47" t="n">
-        <v>932</v>
+        <v>3692000</v>
       </c>
       <c r="F47" t="n">
-        <v>31880558.79873205</v>
+        <v>1183.6986913</v>
       </c>
       <c r="G47" t="n">
-        <v>29614978587.94078</v>
+        <v>4375559942.09703</v>
       </c>
       <c r="H47" t="n">
-        <v>924.8</v>
+        <v>3702600</v>
       </c>
       <c r="I47" t="n">
-        <v>920.6</v>
+        <v>3708600</v>
       </c>
       <c r="J47" t="n">
-        <v>913.8</v>
+        <v>3710400</v>
       </c>
       <c r="K47" t="n">
-        <v>902.1</v>
+        <v>3706400</v>
       </c>
       <c r="L47" t="n">
-        <v>892</v>
+        <v>3720466.169147302</v>
       </c>
       <c r="M47" t="n">
-        <v>883.5</v>
+        <v>3684733.830852698</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44599.83333333334</v>
+        <v>44598.66666666666</v>
       </c>
       <c r="B48" t="n">
-        <v>932</v>
+        <v>3691000</v>
       </c>
       <c r="C48" t="n">
-        <v>958</v>
+        <v>3702000</v>
       </c>
       <c r="D48" t="n">
-        <v>931</v>
+        <v>3676000</v>
       </c>
       <c r="E48" t="n">
-        <v>948</v>
+        <v>3695000</v>
       </c>
       <c r="F48" t="n">
-        <v>69553480.82434745</v>
+        <v>1824.8187305</v>
       </c>
       <c r="G48" t="n">
-        <v>65954070715.19849</v>
+        <v>6731369129.25353</v>
       </c>
       <c r="H48" t="n">
-        <v>931.8</v>
+        <v>3698400</v>
       </c>
       <c r="I48" t="n">
-        <v>924.8</v>
+        <v>3702600</v>
       </c>
       <c r="J48" t="n">
-        <v>920.6</v>
+        <v>3708600</v>
       </c>
       <c r="K48" t="n">
-        <v>912.6</v>
+        <v>3704300</v>
       </c>
       <c r="L48" t="n">
-        <v>902.1</v>
+        <v>3708849.88038209</v>
       </c>
       <c r="M48" t="n">
-        <v>892</v>
+        <v>3687950.11961791</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44599.875</v>
+        <v>44598.70833333334</v>
       </c>
       <c r="B49" t="n">
-        <v>947</v>
+        <v>3697000</v>
       </c>
       <c r="C49" t="n">
-        <v>949</v>
+        <v>3697000</v>
       </c>
       <c r="D49" t="n">
-        <v>938</v>
+        <v>3679000</v>
       </c>
       <c r="E49" t="n">
-        <v>942</v>
+        <v>3691000</v>
       </c>
       <c r="F49" t="n">
-        <v>39387511.13984457</v>
+        <v>1470.95431684</v>
       </c>
       <c r="G49" t="n">
-        <v>37133778486.40878</v>
+        <v>5421306259.98342</v>
       </c>
       <c r="H49" t="n">
-        <v>935.6</v>
+        <v>3696200</v>
       </c>
       <c r="I49" t="n">
-        <v>931.8</v>
+        <v>3698400</v>
       </c>
       <c r="J49" t="n">
-        <v>924.8</v>
+        <v>3702600</v>
       </c>
       <c r="K49" t="n">
-        <v>919.4</v>
+        <v>3703000</v>
       </c>
       <c r="L49" t="n">
-        <v>912.6</v>
+        <v>3707460.550608207</v>
       </c>
       <c r="M49" t="n">
-        <v>902.1</v>
+        <v>3684939.449391793</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44599.91666666666</v>
+        <v>44598.75</v>
       </c>
       <c r="B50" t="n">
-        <v>942</v>
+        <v>3691000</v>
       </c>
       <c r="C50" t="n">
-        <v>951</v>
+        <v>3702000</v>
       </c>
       <c r="D50" t="n">
-        <v>940</v>
+        <v>3689000</v>
       </c>
       <c r="E50" t="n">
-        <v>943</v>
+        <v>3700000</v>
       </c>
       <c r="F50" t="n">
-        <v>27796203.17714127</v>
+        <v>1111.8550879</v>
       </c>
       <c r="G50" t="n">
-        <v>26285894289.61612</v>
+        <v>4109153876.25035</v>
       </c>
       <c r="H50" t="n">
-        <v>936.6</v>
+        <v>3696600</v>
       </c>
       <c r="I50" t="n">
-        <v>935.6</v>
+        <v>3696200</v>
       </c>
       <c r="J50" t="n">
-        <v>931.8</v>
+        <v>3698400</v>
       </c>
       <c r="K50" t="n">
-        <v>925.2</v>
+        <v>3703500</v>
       </c>
       <c r="L50" t="n">
-        <v>919.4</v>
+        <v>3708313.240371477</v>
       </c>
       <c r="M50" t="n">
-        <v>912.6</v>
+        <v>3684886.759628523</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44599.95833333334</v>
+        <v>44598.79166666666</v>
       </c>
       <c r="B51" t="n">
-        <v>942</v>
+        <v>3700000</v>
       </c>
       <c r="C51" t="n">
-        <v>945</v>
+        <v>3701000</v>
       </c>
       <c r="D51" t="n">
-        <v>936</v>
+        <v>3685000</v>
       </c>
       <c r="E51" t="n">
-        <v>943</v>
+        <v>3691000</v>
       </c>
       <c r="F51" t="n">
-        <v>22699423.0713121</v>
+        <v>961.88832708</v>
       </c>
       <c r="G51" t="n">
-        <v>21351280608.31538</v>
+        <v>3551655907.84993</v>
       </c>
       <c r="H51" t="n">
-        <v>941.6</v>
+        <v>3693800</v>
       </c>
       <c r="I51" t="n">
-        <v>936.6</v>
+        <v>3696600</v>
       </c>
       <c r="J51" t="n">
-        <v>935.6</v>
+        <v>3696200</v>
       </c>
       <c r="K51" t="n">
-        <v>931.1</v>
+        <v>3701200</v>
       </c>
       <c r="L51" t="n">
-        <v>925.2</v>
+        <v>3701468.115805072</v>
       </c>
       <c r="M51" t="n">
-        <v>919.4</v>
+        <v>3686131.884194928</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44600</v>
+        <v>44598.83333333334</v>
       </c>
       <c r="B52" t="n">
-        <v>943</v>
+        <v>3691000</v>
       </c>
       <c r="C52" t="n">
-        <v>944</v>
+        <v>3693000</v>
       </c>
       <c r="D52" t="n">
-        <v>934</v>
+        <v>3678000</v>
       </c>
       <c r="E52" t="n">
-        <v>944</v>
+        <v>3682000</v>
       </c>
       <c r="F52" t="n">
-        <v>17199916.63009115</v>
+        <v>1388.37778182</v>
       </c>
       <c r="G52" t="n">
-        <v>16171268890.05381</v>
+        <v>5114993620.24389</v>
       </c>
       <c r="H52" t="n">
-        <v>944</v>
+        <v>3691800</v>
       </c>
       <c r="I52" t="n">
-        <v>941.6</v>
+        <v>3693800</v>
       </c>
       <c r="J52" t="n">
-        <v>936.6</v>
+        <v>3696600</v>
       </c>
       <c r="K52" t="n">
-        <v>934.4</v>
+        <v>3697200</v>
       </c>
       <c r="L52" t="n">
-        <v>931.1</v>
+        <v>3705021.19510483</v>
       </c>
       <c r="M52" t="n">
-        <v>925.2</v>
+        <v>3678578.80489517</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44600.04166666666</v>
+        <v>44598.875</v>
       </c>
       <c r="B53" t="n">
-        <v>943</v>
+        <v>3682000</v>
       </c>
       <c r="C53" t="n">
-        <v>963</v>
+        <v>3694000</v>
       </c>
       <c r="D53" t="n">
-        <v>940</v>
+        <v>3681000</v>
       </c>
       <c r="E53" t="n">
-        <v>951</v>
+        <v>3694000</v>
       </c>
       <c r="F53" t="n">
-        <v>36234848.89772419</v>
+        <v>1363.76756078</v>
       </c>
       <c r="G53" t="n">
-        <v>34612960833.10963</v>
+        <v>5030225240.00443</v>
       </c>
       <c r="H53" t="n">
-        <v>944.6</v>
+        <v>3691600</v>
       </c>
       <c r="I53" t="n">
-        <v>944</v>
+        <v>3691800</v>
       </c>
       <c r="J53" t="n">
-        <v>941.6</v>
+        <v>3693800</v>
       </c>
       <c r="K53" t="n">
-        <v>938.2</v>
+        <v>3695000</v>
       </c>
       <c r="L53" t="n">
-        <v>934.4</v>
+        <v>3704607.690033207</v>
       </c>
       <c r="M53" t="n">
-        <v>931.1</v>
+        <v>3678592.309966793</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44600.08333333334</v>
+        <v>44598.91666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>952</v>
+        <v>3692000</v>
       </c>
       <c r="C54" t="n">
-        <v>962</v>
+        <v>3702000</v>
       </c>
       <c r="D54" t="n">
-        <v>946</v>
+        <v>3685000</v>
       </c>
       <c r="E54" t="n">
-        <v>958</v>
+        <v>3694000</v>
       </c>
       <c r="F54" t="n">
-        <v>9393141.92926961</v>
+        <v>1993.52902993</v>
       </c>
       <c r="G54" t="n">
-        <v>8965948851.162897</v>
+        <v>7364765281.62421</v>
       </c>
       <c r="H54" t="n">
-        <v>947.8</v>
+        <v>3692200</v>
       </c>
       <c r="I54" t="n">
-        <v>944.6</v>
+        <v>3691600</v>
       </c>
       <c r="J54" t="n">
-        <v>944</v>
+        <v>3691800</v>
       </c>
       <c r="K54" t="n">
-        <v>941.7</v>
+        <v>3694200</v>
       </c>
       <c r="L54" t="n">
-        <v>938.2</v>
+        <v>3705345.341380124</v>
       </c>
       <c r="M54" t="n">
-        <v>934.4</v>
+        <v>3679054.658619876</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44600.125</v>
+        <v>44598.95833333334</v>
       </c>
       <c r="B55" t="n">
-        <v>958</v>
+        <v>3695000</v>
       </c>
       <c r="C55" t="n">
-        <v>972</v>
+        <v>3734000</v>
       </c>
       <c r="D55" t="n">
-        <v>951</v>
+        <v>3638000</v>
       </c>
       <c r="E55" t="n">
-        <v>956</v>
+        <v>3649000</v>
       </c>
       <c r="F55" t="n">
-        <v>16584649.38681511</v>
+        <v>7047.7757004</v>
       </c>
       <c r="G55" t="n">
-        <v>15966056227.24726</v>
+        <v>25953738470.32736</v>
       </c>
       <c r="H55" t="n">
-        <v>950.4</v>
+        <v>3682000</v>
       </c>
       <c r="I55" t="n">
-        <v>947.8</v>
+        <v>3692200</v>
       </c>
       <c r="J55" t="n">
-        <v>944.6</v>
+        <v>3691600</v>
       </c>
       <c r="K55" t="n">
-        <v>943.5</v>
+        <v>3689300</v>
       </c>
       <c r="L55" t="n">
-        <v>941.7</v>
+        <v>3720183.766184073</v>
       </c>
       <c r="M55" t="n">
-        <v>938.2</v>
+        <v>3643816.233815927</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44600.16666666666</v>
+        <v>44599</v>
       </c>
       <c r="B56" t="n">
-        <v>956</v>
+        <v>3650000</v>
       </c>
       <c r="C56" t="n">
-        <v>970</v>
+        <v>3680000</v>
       </c>
       <c r="D56" t="n">
-        <v>954</v>
+        <v>3610000</v>
       </c>
       <c r="E56" t="n">
-        <v>960</v>
+        <v>3663000</v>
       </c>
       <c r="F56" t="n">
-        <v>8141559.84836054</v>
+        <v>5217.59779037</v>
       </c>
       <c r="G56" t="n">
-        <v>7838132444.995028</v>
+        <v>19027999841.61428</v>
       </c>
       <c r="H56" t="n">
-        <v>953.8</v>
+        <v>3676400</v>
       </c>
       <c r="I56" t="n">
-        <v>950.4</v>
+        <v>3682000</v>
       </c>
       <c r="J56" t="n">
-        <v>947.8</v>
+        <v>3692200</v>
       </c>
       <c r="K56" t="n">
-        <v>947.7</v>
+        <v>3685100</v>
       </c>
       <c r="L56" t="n">
-        <v>943.5</v>
+        <v>3716164.305601884</v>
       </c>
       <c r="M56" t="n">
-        <v>941.7</v>
+        <v>3636635.694398116</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44600.20833333334</v>
+        <v>44599.04166666666</v>
       </c>
       <c r="B57" t="n">
-        <v>960</v>
+        <v>3666000</v>
       </c>
       <c r="C57" t="n">
-        <v>973</v>
+        <v>3685000</v>
       </c>
       <c r="D57" t="n">
-        <v>954</v>
+        <v>3654000</v>
       </c>
       <c r="E57" t="n">
-        <v>962</v>
+        <v>3681000</v>
       </c>
       <c r="F57" t="n">
-        <v>11399652.96153533</v>
+        <v>1489.19093077</v>
       </c>
       <c r="G57" t="n">
-        <v>10990330336.20312</v>
+        <v>5464128306.39735</v>
       </c>
       <c r="H57" t="n">
-        <v>957.4</v>
+        <v>3676200</v>
       </c>
       <c r="I57" t="n">
-        <v>953.8</v>
+        <v>3676400</v>
       </c>
       <c r="J57" t="n">
-        <v>950.4</v>
+        <v>3682000</v>
       </c>
       <c r="K57" t="n">
-        <v>950.7</v>
+        <v>3684000</v>
       </c>
       <c r="L57" t="n">
-        <v>947.7</v>
+        <v>3715833.319315949</v>
       </c>
       <c r="M57" t="n">
-        <v>943.5</v>
+        <v>3636566.680684051</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44600.25</v>
+        <v>44599.08333333334</v>
       </c>
       <c r="B58" t="n">
-        <v>961</v>
+        <v>3682000</v>
       </c>
       <c r="C58" t="n">
-        <v>979</v>
+        <v>3687000</v>
       </c>
       <c r="D58" t="n">
-        <v>959</v>
+        <v>3671000</v>
       </c>
       <c r="E58" t="n">
-        <v>977</v>
+        <v>3675000</v>
       </c>
       <c r="F58" t="n">
-        <v>15649404.54895826</v>
+        <v>542.99436973</v>
       </c>
       <c r="G58" t="n">
-        <v>15183449823.23078</v>
+        <v>1998559049.84361</v>
       </c>
       <c r="H58" t="n">
-        <v>962.6</v>
+        <v>3672400</v>
       </c>
       <c r="I58" t="n">
-        <v>957.4</v>
+        <v>3676200</v>
       </c>
       <c r="J58" t="n">
-        <v>953.8</v>
+        <v>3676400</v>
       </c>
       <c r="K58" t="n">
-        <v>953.6</v>
+        <v>3682000</v>
       </c>
       <c r="L58" t="n">
-        <v>950.7</v>
+        <v>3706797.67433999</v>
       </c>
       <c r="M58" t="n">
-        <v>947.7</v>
+        <v>3638002.32566001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44600.29166666666</v>
+        <v>44599.125</v>
       </c>
       <c r="B59" t="n">
-        <v>977</v>
+        <v>3679000</v>
       </c>
       <c r="C59" t="n">
-        <v>1030</v>
+        <v>3682000</v>
       </c>
       <c r="D59" t="n">
-        <v>977</v>
+        <v>3658000</v>
       </c>
       <c r="E59" t="n">
-        <v>1005</v>
+        <v>3665000</v>
       </c>
       <c r="F59" t="n">
-        <v>76779788.55184077</v>
+        <v>530.91384842</v>
       </c>
       <c r="G59" t="n">
-        <v>77346606494.09445</v>
+        <v>1946913948.58719</v>
       </c>
       <c r="H59" t="n">
-        <v>972</v>
+        <v>3666600</v>
       </c>
       <c r="I59" t="n">
-        <v>962.6</v>
+        <v>3672400</v>
       </c>
       <c r="J59" t="n">
-        <v>957.4</v>
+        <v>3676200</v>
       </c>
       <c r="K59" t="n">
-        <v>959.9</v>
+        <v>3679400</v>
       </c>
       <c r="L59" t="n">
-        <v>953.6</v>
+        <v>3691160.130292814</v>
       </c>
       <c r="M59" t="n">
-        <v>950.7</v>
+        <v>3642039.869707186</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44600.33333333334</v>
+        <v>44599.16666666666</v>
       </c>
       <c r="B60" t="n">
-        <v>1010</v>
+        <v>3667000</v>
       </c>
       <c r="C60" t="n">
-        <v>1020</v>
+        <v>3678000</v>
       </c>
       <c r="D60" t="n">
-        <v>997</v>
+        <v>3664000</v>
       </c>
       <c r="E60" t="n">
-        <v>1020</v>
+        <v>3674000</v>
       </c>
       <c r="F60" t="n">
-        <v>39383203.65721966</v>
+        <v>410.94700573</v>
       </c>
       <c r="G60" t="n">
-        <v>39643512884.31609</v>
+        <v>1509254478.43796</v>
       </c>
       <c r="H60" t="n">
-        <v>984.8</v>
+        <v>3671600</v>
       </c>
       <c r="I60" t="n">
-        <v>972</v>
+        <v>3666600</v>
       </c>
       <c r="J60" t="n">
-        <v>962.6</v>
+        <v>3672400</v>
       </c>
       <c r="K60" t="n">
-        <v>967.6</v>
+        <v>3676800</v>
       </c>
       <c r="L60" t="n">
-        <v>959.9</v>
+        <v>3686539.879517586</v>
       </c>
       <c r="M60" t="n">
-        <v>953.6</v>
+        <v>3656660.120482414</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44600.375</v>
+        <v>44599.20833333334</v>
       </c>
       <c r="B61" t="n">
-        <v>1020</v>
+        <v>3674000</v>
       </c>
       <c r="C61" t="n">
-        <v>1030</v>
+        <v>3677000</v>
       </c>
       <c r="D61" t="n">
-        <v>996</v>
+        <v>3653000</v>
       </c>
       <c r="E61" t="n">
-        <v>1005</v>
+        <v>3666000</v>
       </c>
       <c r="F61" t="n">
-        <v>66465955.04262282</v>
+        <v>483.82008673</v>
       </c>
       <c r="G61" t="n">
-        <v>67174275141.8523</v>
+        <v>1772944631.37583</v>
       </c>
       <c r="H61" t="n">
-        <v>993.8</v>
+        <v>3672200</v>
       </c>
       <c r="I61" t="n">
-        <v>984.8</v>
+        <v>3671600</v>
       </c>
       <c r="J61" t="n">
-        <v>972</v>
+        <v>3666600</v>
       </c>
       <c r="K61" t="n">
-        <v>973.8</v>
+        <v>3674300</v>
       </c>
       <c r="L61" t="n">
-        <v>967.6</v>
+        <v>3685571.611720357</v>
       </c>
       <c r="M61" t="n">
-        <v>959.9</v>
+        <v>3658828.388279643</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44600.41666666666</v>
+        <v>44599.25</v>
       </c>
       <c r="B62" t="n">
-        <v>1005</v>
+        <v>3666000</v>
       </c>
       <c r="C62" t="n">
-        <v>1065</v>
+        <v>3682000</v>
       </c>
       <c r="D62" t="n">
-        <v>1005</v>
+        <v>3660000</v>
       </c>
       <c r="E62" t="n">
-        <v>1060</v>
+        <v>3679000</v>
       </c>
       <c r="F62" t="n">
-        <v>76761756.98867711</v>
+        <v>499.28292921</v>
       </c>
       <c r="G62" t="n">
-        <v>79915449640.9724</v>
+        <v>1834963607.54971</v>
       </c>
       <c r="H62" t="n">
-        <v>1013.4</v>
+        <v>3671800</v>
       </c>
       <c r="I62" t="n">
-        <v>993.8</v>
+        <v>3672200</v>
       </c>
       <c r="J62" t="n">
-        <v>984.8</v>
+        <v>3671600</v>
       </c>
       <c r="K62" t="n">
-        <v>985.4</v>
+        <v>3674000</v>
       </c>
       <c r="L62" t="n">
-        <v>973.8</v>
+        <v>3683916.104984689</v>
       </c>
       <c r="M62" t="n">
-        <v>967.6</v>
+        <v>3659683.895015311</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44600.45833333334</v>
+        <v>44599.29166666666</v>
       </c>
       <c r="B63" t="n">
-        <v>1060</v>
+        <v>3679000</v>
       </c>
       <c r="C63" t="n">
-        <v>1075</v>
+        <v>3683000</v>
       </c>
       <c r="D63" t="n">
-        <v>1040</v>
+        <v>3669000</v>
       </c>
       <c r="E63" t="n">
-        <v>1050</v>
+        <v>3674000</v>
       </c>
       <c r="F63" t="n">
-        <v>38136699.96316894</v>
+        <v>778.1415726</v>
       </c>
       <c r="G63" t="n">
-        <v>40250660017.01316</v>
+        <v>2861392711.36949</v>
       </c>
       <c r="H63" t="n">
-        <v>1028</v>
+        <v>3671600</v>
       </c>
       <c r="I63" t="n">
-        <v>1013.4</v>
+        <v>3671800</v>
       </c>
       <c r="J63" t="n">
-        <v>993.8</v>
+        <v>3672200</v>
       </c>
       <c r="K63" t="n">
-        <v>995.3</v>
+        <v>3672000</v>
       </c>
       <c r="L63" t="n">
-        <v>985.4</v>
+        <v>3683482.76062201</v>
       </c>
       <c r="M63" t="n">
-        <v>973.8</v>
+        <v>3659717.23937799</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44600.5</v>
+        <v>44599.33333333334</v>
       </c>
       <c r="B64" t="n">
-        <v>1055</v>
+        <v>3674000</v>
       </c>
       <c r="C64" t="n">
-        <v>1080</v>
+        <v>3753000</v>
       </c>
       <c r="D64" t="n">
-        <v>1040</v>
+        <v>3668000</v>
       </c>
       <c r="E64" t="n">
-        <v>1065</v>
+        <v>3733000</v>
       </c>
       <c r="F64" t="n">
-        <v>37522070.27067116</v>
+        <v>5897.39964872</v>
       </c>
       <c r="G64" t="n">
-        <v>39754609610.00072</v>
+        <v>21935969012.8712</v>
       </c>
       <c r="H64" t="n">
-        <v>1040</v>
+        <v>3685200</v>
       </c>
       <c r="I64" t="n">
-        <v>1028</v>
+        <v>3671600</v>
       </c>
       <c r="J64" t="n">
-        <v>1013.4</v>
+        <v>3671800</v>
       </c>
       <c r="K64" t="n">
-        <v>1006</v>
+        <v>3675900</v>
       </c>
       <c r="L64" t="n">
-        <v>995.3</v>
+        <v>3739447.580591212</v>
       </c>
       <c r="M64" t="n">
-        <v>985.4</v>
+        <v>3630952.419408788</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44600.54166666666</v>
+        <v>44599.375</v>
       </c>
       <c r="B65" t="n">
-        <v>1065</v>
+        <v>3733000</v>
       </c>
       <c r="C65" t="n">
-        <v>1085</v>
+        <v>3741000</v>
       </c>
       <c r="D65" t="n">
-        <v>1060</v>
+        <v>3670000</v>
       </c>
       <c r="E65" t="n">
-        <v>1070</v>
+        <v>3694000</v>
       </c>
       <c r="F65" t="n">
-        <v>35708228.10294907</v>
+        <v>5349.83040106</v>
       </c>
       <c r="G65" t="n">
-        <v>38319015120.28555</v>
+        <v>19813124634.01995</v>
       </c>
       <c r="H65" t="n">
-        <v>1050</v>
+        <v>3689200</v>
       </c>
       <c r="I65" t="n">
-        <v>1040</v>
+        <v>3685200</v>
       </c>
       <c r="J65" t="n">
-        <v>1028</v>
+        <v>3671600</v>
       </c>
       <c r="K65" t="n">
-        <v>1017.4</v>
+        <v>3680400</v>
       </c>
       <c r="L65" t="n">
-        <v>1006</v>
+        <v>3742254.688765462</v>
       </c>
       <c r="M65" t="n">
-        <v>995.3</v>
+        <v>3636145.311234538</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44600.58333333334</v>
+        <v>44599.41666666666</v>
       </c>
       <c r="B66" t="n">
-        <v>1065</v>
+        <v>3694000</v>
       </c>
       <c r="C66" t="n">
-        <v>1095</v>
+        <v>3720000</v>
       </c>
       <c r="D66" t="n">
-        <v>1065</v>
+        <v>3673000</v>
       </c>
       <c r="E66" t="n">
-        <v>1095</v>
+        <v>3706000</v>
       </c>
       <c r="F66" t="n">
-        <v>46063194.57469859</v>
+        <v>2398.89833706</v>
       </c>
       <c r="G66" t="n">
-        <v>49827481303.45911</v>
+        <v>8873351425.041071</v>
       </c>
       <c r="H66" t="n">
-        <v>1068</v>
+        <v>3697200</v>
       </c>
       <c r="I66" t="n">
-        <v>1050</v>
+        <v>3689200</v>
       </c>
       <c r="J66" t="n">
-        <v>1040</v>
+        <v>3685200</v>
       </c>
       <c r="K66" t="n">
-        <v>1030.9</v>
+        <v>3684700</v>
       </c>
       <c r="L66" t="n">
-        <v>1017.4</v>
+        <v>3744515.959252667</v>
       </c>
       <c r="M66" t="n">
-        <v>1006</v>
+        <v>3649884.040747333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44600.625</v>
+        <v>44599.45833333334</v>
       </c>
       <c r="B67" t="n">
-        <v>1095</v>
+        <v>3706000</v>
       </c>
       <c r="C67" t="n">
-        <v>1115</v>
+        <v>3748000</v>
       </c>
       <c r="D67" t="n">
-        <v>1060</v>
+        <v>3701000</v>
       </c>
       <c r="E67" t="n">
-        <v>1085</v>
+        <v>3717000</v>
       </c>
       <c r="F67" t="n">
-        <v>96222914.75297448</v>
+        <v>4075.34918783</v>
       </c>
       <c r="G67" t="n">
-        <v>104867527693.0956</v>
+        <v>15171302791.62339</v>
       </c>
       <c r="H67" t="n">
-        <v>1073</v>
+        <v>3704800</v>
       </c>
       <c r="I67" t="n">
-        <v>1068</v>
+        <v>3697200</v>
       </c>
       <c r="J67" t="n">
-        <v>1050</v>
+        <v>3689200</v>
       </c>
       <c r="K67" t="n">
-        <v>1043.2</v>
+        <v>3688300</v>
       </c>
       <c r="L67" t="n">
-        <v>1030.9</v>
+        <v>3749641.944650071</v>
       </c>
       <c r="M67" t="n">
-        <v>1017.4</v>
+        <v>3659958.055349929</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44600.66666666666</v>
+        <v>44599.5</v>
       </c>
       <c r="B68" t="n">
-        <v>1085</v>
+        <v>3718000</v>
       </c>
       <c r="C68" t="n">
-        <v>1105</v>
+        <v>3765000</v>
       </c>
       <c r="D68" t="n">
-        <v>1055</v>
+        <v>3710000</v>
       </c>
       <c r="E68" t="n">
-        <v>1090</v>
+        <v>3760000</v>
       </c>
       <c r="F68" t="n">
-        <v>64676263.85616278</v>
+        <v>3740.5124504</v>
       </c>
       <c r="G68" t="n">
-        <v>69952521499.29826</v>
+        <v>14003780930.10739</v>
       </c>
       <c r="H68" t="n">
-        <v>1081</v>
+        <v>3722000</v>
       </c>
       <c r="I68" t="n">
-        <v>1073</v>
+        <v>3704800</v>
       </c>
       <c r="J68" t="n">
-        <v>1068</v>
+        <v>3697200</v>
       </c>
       <c r="K68" t="n">
-        <v>1054.5</v>
+        <v>3696800</v>
       </c>
       <c r="L68" t="n">
-        <v>1043.2</v>
+        <v>3773283.525619832</v>
       </c>
       <c r="M68" t="n">
-        <v>1030.9</v>
+        <v>3670716.474380168</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44600.70833333334</v>
+        <v>44599.54166666666</v>
       </c>
       <c r="B69" t="n">
-        <v>1090</v>
+        <v>3761000</v>
       </c>
       <c r="C69" t="n">
-        <v>1095</v>
+        <v>3780000</v>
       </c>
       <c r="D69" t="n">
-        <v>1025</v>
+        <v>3739000</v>
       </c>
       <c r="E69" t="n">
-        <v>1025</v>
+        <v>3770000</v>
       </c>
       <c r="F69" t="n">
-        <v>133101868.9952418</v>
+        <v>3451.53362821</v>
       </c>
       <c r="G69" t="n">
-        <v>139654933896.5323</v>
+        <v>12985636330.42872</v>
       </c>
       <c r="H69" t="n">
-        <v>1073</v>
+        <v>3729400</v>
       </c>
       <c r="I69" t="n">
-        <v>1081</v>
+        <v>3722000</v>
       </c>
       <c r="J69" t="n">
-        <v>1073</v>
+        <v>3704800</v>
       </c>
       <c r="K69" t="n">
-        <v>1056.5</v>
+        <v>3707300</v>
       </c>
       <c r="L69" t="n">
-        <v>1054.5</v>
+        <v>3796773.585328376</v>
       </c>
       <c r="M69" t="n">
-        <v>1043.2</v>
+        <v>3662026.414671624</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44600.75</v>
+        <v>44599.58333333334</v>
       </c>
       <c r="B70" t="n">
-        <v>1025</v>
+        <v>3770000</v>
       </c>
       <c r="C70" t="n">
-        <v>1050</v>
+        <v>3798000</v>
       </c>
       <c r="D70" t="n">
-        <v>1010</v>
+        <v>3764000</v>
       </c>
       <c r="E70" t="n">
-        <v>1040</v>
+        <v>3778000</v>
       </c>
       <c r="F70" t="n">
-        <v>97095390.34879993</v>
+        <v>2829.26305108</v>
       </c>
       <c r="G70" t="n">
-        <v>99853277923.84312</v>
+        <v>10687045046.20573</v>
       </c>
       <c r="H70" t="n">
-        <v>1067</v>
+        <v>3746200</v>
       </c>
       <c r="I70" t="n">
-        <v>1073</v>
+        <v>3729400</v>
       </c>
       <c r="J70" t="n">
-        <v>1081</v>
+        <v>3722000</v>
       </c>
       <c r="K70" t="n">
-        <v>1058.5</v>
+        <v>3717700</v>
       </c>
       <c r="L70" t="n">
-        <v>1056.5</v>
+        <v>3811290.705941786</v>
       </c>
       <c r="M70" t="n">
-        <v>1054.5</v>
+        <v>3681109.294058214</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44600.79166666666</v>
+        <v>44599.625</v>
       </c>
       <c r="B71" t="n">
-        <v>1040</v>
+        <v>3779000</v>
       </c>
       <c r="C71" t="n">
-        <v>1055</v>
+        <v>3795000</v>
       </c>
       <c r="D71" t="n">
-        <v>1025</v>
+        <v>3764000</v>
       </c>
       <c r="E71" t="n">
-        <v>1040</v>
+        <v>3778000</v>
       </c>
       <c r="F71" t="n">
-        <v>42449984.87467834</v>
+        <v>2423.95878235</v>
       </c>
       <c r="G71" t="n">
-        <v>44149810112.14465</v>
+        <v>9154740378.42251</v>
       </c>
       <c r="H71" t="n">
-        <v>1056</v>
+        <v>3760600</v>
       </c>
       <c r="I71" t="n">
-        <v>1067</v>
+        <v>3746200</v>
       </c>
       <c r="J71" t="n">
-        <v>1073</v>
+        <v>3729400</v>
       </c>
       <c r="K71" t="n">
-        <v>1062</v>
+        <v>3728900</v>
       </c>
       <c r="L71" t="n">
-        <v>1058.5</v>
+        <v>3811543.105519786</v>
       </c>
       <c r="M71" t="n">
-        <v>1056.5</v>
+        <v>3709656.894480214</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44600.83333333334</v>
+        <v>44599.66666666666</v>
       </c>
       <c r="B72" t="n">
-        <v>1045</v>
+        <v>3777000</v>
       </c>
       <c r="C72" t="n">
-        <v>1055</v>
+        <v>3779000</v>
       </c>
       <c r="D72" t="n">
-        <v>1035</v>
+        <v>3746000</v>
       </c>
       <c r="E72" t="n">
-        <v>1050</v>
+        <v>3762000</v>
       </c>
       <c r="F72" t="n">
-        <v>49640853.46824307</v>
+        <v>1506.18741306</v>
       </c>
       <c r="G72" t="n">
-        <v>51781102205.53276</v>
+        <v>5666573687.47466</v>
       </c>
       <c r="H72" t="n">
-        <v>1049</v>
+        <v>3769600</v>
       </c>
       <c r="I72" t="n">
-        <v>1056</v>
+        <v>3760600</v>
       </c>
       <c r="J72" t="n">
-        <v>1067</v>
+        <v>3746200</v>
       </c>
       <c r="K72" t="n">
-        <v>1061</v>
+        <v>3737200</v>
       </c>
       <c r="L72" t="n">
-        <v>1062</v>
+        <v>3786664.583206161</v>
       </c>
       <c r="M72" t="n">
-        <v>1058.5</v>
+        <v>3752535.416793839</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
+        <v>44599.70833333334</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3760000</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3771000</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3741000</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3754000</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2040.14554268</v>
+      </c>
+      <c r="G73" t="n">
+        <v>7661239295.56231</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3768400</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3769600</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3760600</v>
+      </c>
+      <c r="K73" t="n">
+        <v>3745200</v>
+      </c>
+      <c r="L73" t="n">
+        <v>3789261.447696649</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3747538.552303351</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44599.75</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3754000</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3764000</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3710000</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3743000</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3572.05763847</v>
+      </c>
+      <c r="G74" t="n">
+        <v>13345967960.58887</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3763000</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3768400</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3769600</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3746200</v>
+      </c>
+      <c r="L74" t="n">
+        <v>3793528.675044947</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3732471.324955053</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44599.79166666666</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3743000</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3764000</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3729000</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3752000</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1594.02077875</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5975787319.82191</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3757800</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3763000</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3768400</v>
+      </c>
+      <c r="K75" t="n">
+        <v>3752000</v>
+      </c>
+      <c r="L75" t="n">
+        <v>3784121.094202179</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3731478.905797821</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44599.83333333334</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3753000</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3765000</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3748000</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3755000</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1697.46877572</v>
+      </c>
+      <c r="G76" t="n">
+        <v>6374248799.23552</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3753200</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3757800</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3763000</v>
+      </c>
+      <c r="K76" t="n">
+        <v>3756900</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3766867.479650616</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3739532.520349384</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44599.875</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3756000</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3774000</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3738000</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3758000</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1772.21936734</v>
+      </c>
+      <c r="G77" t="n">
+        <v>6654883233.54941</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3752400</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3753200</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3757800</v>
+      </c>
+      <c r="K77" t="n">
+        <v>3761000</v>
+      </c>
+      <c r="L77" t="n">
+        <v>3763766.617790706</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3741033.382209294</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44599.91666666666</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3757000</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3780000</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3755000</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3778000</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1885.32257804</v>
+      </c>
+      <c r="G78" t="n">
+        <v>7111504669.9256</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3757200</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3752400</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3753200</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3762800</v>
+      </c>
+      <c r="L78" t="n">
+        <v>3783022.470834527</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3731377.529165473</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44599.95833333334</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3777000</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3823000</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3770000</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3815000</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4998.69137339</v>
+      </c>
+      <c r="G79" t="n">
+        <v>18983045335.50401</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3771600</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3757200</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3752400</v>
+      </c>
+      <c r="K79" t="n">
+        <v>3767300</v>
+      </c>
+      <c r="L79" t="n">
+        <v>3824223.188804937</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3718976.811195063</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3818000</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3818000</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3775000</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3810000</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4056.03309283</v>
+      </c>
+      <c r="G80" t="n">
+        <v>15429552845.08138</v>
+      </c>
+      <c r="H80" t="n">
+        <v>3783200</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3771600</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3757200</v>
+      </c>
+      <c r="K80" t="n">
+        <v>3770500</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3839651.749308591</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3726748.250691409</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44600.04166666666</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3811000</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3828000</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3790000</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3812000</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2719.6801893</v>
+      </c>
+      <c r="G81" t="n">
+        <v>10362188084.22601</v>
+      </c>
+      <c r="H81" t="n">
+        <v>3794600</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3783200</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3771600</v>
+      </c>
+      <c r="K81" t="n">
+        <v>3773900</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3845307.001488946</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3743892.998511054</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44600.08333333334</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3812000</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3829000</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3802000</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3824000</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1705.42171425</v>
+      </c>
+      <c r="G82" t="n">
+        <v>6502711659.18787</v>
+      </c>
+      <c r="H82" t="n">
+        <v>3807800</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3794600</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3783200</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3780100</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3842797.142740515</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3772802.857259485</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44600.125</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3828000</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3860000</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3822000</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3855000</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2352.90425457</v>
+      </c>
+      <c r="G83" t="n">
+        <v>9045539662.33742</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3823200</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3807800</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3794600</v>
+      </c>
+      <c r="K83" t="n">
+        <v>3790200</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3860332.196272238</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3786067.803727762</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44600.16666666666</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3855000</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3880000</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3852000</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3856000</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1190.17841233</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4600937552.25389</v>
+      </c>
+      <c r="H84" t="n">
+        <v>3831400</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3823200</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3807800</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3801500</v>
+      </c>
+      <c r="L84" t="n">
+        <v>3876690.175535098</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3786109.824464902</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44600.20833333334</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3857000</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3877000</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3835000</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3852000</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1104.54762071</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4260171138.72112</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3839800</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3831400</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3823200</v>
+      </c>
+      <c r="K85" t="n">
+        <v>3811500</v>
+      </c>
+      <c r="L85" t="n">
+        <v>3880601.9607372</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3798998.0392628</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44600.25</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3853000</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3862000</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3826000</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3846000</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1819.76338357</v>
+      </c>
+      <c r="G86" t="n">
+        <v>6986605114.22557</v>
+      </c>
+      <c r="H86" t="n">
+        <v>3846600</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3839800</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3831400</v>
+      </c>
+      <c r="K86" t="n">
+        <v>3820600</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3873042.390209661</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3820157.609790339</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44600.29166666666</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3847000</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3861000</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3839000</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3853000</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1706.85566874</v>
+      </c>
+      <c r="G87" t="n">
+        <v>6572911624.63889</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3852400</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3846600</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3839800</v>
+      </c>
+      <c r="K87" t="n">
+        <v>3830100</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3860223.042886243</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3844576.957113757</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44600.33333333334</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3853000</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3858000</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3827000</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3830000</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3063.70266716</v>
+      </c>
+      <c r="G88" t="n">
+        <v>11769273219.46169</v>
+      </c>
+      <c r="H88" t="n">
+        <v>3847400</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3852400</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3846600</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3835300</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3868165.355763868</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3826634.644236132</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44600.375</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3828000</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3854000</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3804000</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3834000</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4314.58150794</v>
+      </c>
+      <c r="G89" t="n">
+        <v>16543319578.3479</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3843000</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3847400</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3852400</v>
+      </c>
+      <c r="K89" t="n">
+        <v>3837200</v>
+      </c>
+      <c r="L89" t="n">
+        <v>3863976.176963403</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3822023.823036597</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44600.41666666666</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3832000</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3866000</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3825000</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3856000</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2239.88692783</v>
+      </c>
+      <c r="G90" t="n">
+        <v>8620951138.815319</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3843800</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3843000</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3847400</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3841800</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3866708.513701242</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3820891.486298758</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44600.45833333334</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3857000</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3861000</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3836000</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3840000</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2124.08977159</v>
+      </c>
+      <c r="G91" t="n">
+        <v>8175062892.71095</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3842600</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3843800</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3843000</v>
+      </c>
+      <c r="K91" t="n">
+        <v>3844600</v>
+      </c>
+      <c r="L91" t="n">
+        <v>3865560.836221706</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3819639.163778294</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44600.5</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3838000</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3849000</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3832000</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3844000</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1528.25438865</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5868280577.30816</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3840800</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3842600</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3843800</v>
+      </c>
+      <c r="K92" t="n">
+        <v>3846600</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3860919.642143935</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3820680.357856065</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44600.54166666666</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3844000</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3867000</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3838000</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3864000</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3341.62393661</v>
+      </c>
+      <c r="G93" t="n">
+        <v>12871767009.3864</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3847600</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3840800</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3842600</v>
+      </c>
+      <c r="K93" t="n">
+        <v>3847500</v>
+      </c>
+      <c r="L93" t="n">
+        <v>3871996.721091163</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3823203.278908837</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44600.58333333334</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3868000</v>
+      </c>
+      <c r="C94" t="n">
+        <v>3894000</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3854000</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3880000</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3409.8591954</v>
+      </c>
+      <c r="G94" t="n">
+        <v>13209620081.98315</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3856800</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3847600</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3840800</v>
+      </c>
+      <c r="K94" t="n">
+        <v>3849900</v>
+      </c>
+      <c r="L94" t="n">
+        <v>3888999.378875997</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3824600.621124003</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44600.625</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3880000</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3934000</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3840000</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3871000</v>
+      </c>
+      <c r="F95" t="n">
+        <v>8742.29818197</v>
+      </c>
+      <c r="G95" t="n">
+        <v>34010541114.88687</v>
+      </c>
+      <c r="H95" t="n">
+        <v>3859800</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3856800</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3847600</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3851800</v>
+      </c>
+      <c r="L95" t="n">
+        <v>3894336.936748936</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3825263.063251064</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44600.66666666666</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3871000</v>
+      </c>
+      <c r="C96" t="n">
+        <v>3872000</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3840000</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3854000</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3010.68247171</v>
+      </c>
+      <c r="G96" t="n">
+        <v>11601735456.69886</v>
+      </c>
+      <c r="H96" t="n">
+        <v>3862600</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3859800</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3856800</v>
+      </c>
+      <c r="K96" t="n">
+        <v>3852600</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3890799.290771223</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3834400.709228777</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44600.70833333334</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3854000</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3858000</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3737000</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3746000</v>
+      </c>
+      <c r="F97" t="n">
+        <v>11140.66476521</v>
+      </c>
+      <c r="G97" t="n">
+        <v>42066407418.91996</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3843000</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3862600</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3859800</v>
+      </c>
+      <c r="K97" t="n">
+        <v>3841900</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3953109.036868006</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3732890.963131994</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44600.75</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3746000</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3777000</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3693000</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3752000</v>
+      </c>
+      <c r="F98" t="n">
+        <v>7342.23473081</v>
+      </c>
+      <c r="G98" t="n">
+        <v>27425961650.87161</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3820600</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3843000</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3862600</v>
+      </c>
+      <c r="K98" t="n">
+        <v>3834100</v>
+      </c>
+      <c r="L98" t="n">
+        <v>3952718.128960412</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3688481.871039588</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>44600.79166666666</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3751000</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3786000</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3725000</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3773000</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2714.95169368</v>
+      </c>
+      <c r="G99" t="n">
+        <v>10191336719.5094</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3799200</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3820600</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3843000</v>
+      </c>
+      <c r="K99" t="n">
+        <v>3828000</v>
+      </c>
+      <c r="L99" t="n">
+        <v>3917110.135272588</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3681289.864727412</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>44600.83333333334</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3773000</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3805000</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3773000</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3801000</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4257.10194879</v>
+      </c>
+      <c r="G100" t="n">
+        <v>16141422472.77402</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3785200</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3799200</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3820600</v>
+      </c>
+      <c r="K100" t="n">
+        <v>3822500</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3873352.141210523</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3697047.858789477</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>44600.875</v>
       </c>
-      <c r="B73" t="n">
-        <v>1055</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1055</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1040</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1045</v>
-      </c>
-      <c r="F73" t="n">
-        <v>5096718.45059181</v>
-      </c>
-      <c r="G73" t="n">
-        <v>5339728946.692206</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1040</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1049</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1056</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1060.5</v>
-      </c>
-      <c r="L73" t="n">
-        <v>1061</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1062</v>
+      <c r="B101" t="n">
+        <v>3802000</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3802000</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3731000</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3749000</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3471.83089074</v>
+      </c>
+      <c r="G101" t="n">
+        <v>13043832631.84379</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3764200</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3785200</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3799200</v>
+      </c>
+      <c r="K101" t="n">
+        <v>3813400</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3810490.387771113</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3717909.612228887</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>44600.91666666666</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3749000</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3787000</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3740000</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3783000</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1643.15101938</v>
+      </c>
+      <c r="G102" t="n">
+        <v>6181923749.37048</v>
+      </c>
+      <c r="H102" t="n">
+        <v>3771600</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3764200</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3785200</v>
+      </c>
+      <c r="K102" t="n">
+        <v>3807300</v>
+      </c>
+      <c r="L102" t="n">
+        <v>3815087.929359766</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3728112.070640234</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>44600.95833333334</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3783000</v>
+      </c>
+      <c r="C103" t="n">
+        <v>3794000</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3759000</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3761000</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1769.18358519</v>
+      </c>
+      <c r="G103" t="n">
+        <v>6682391268.05058</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3773400</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3771600</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3764200</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3797000</v>
+      </c>
+      <c r="L103" t="n">
+        <v>3813439.980019975</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3733360.019980025</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3761000</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3765000</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3715000</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3762000</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3573.59198631</v>
+      </c>
+      <c r="G104" t="n">
+        <v>13365272985.11839</v>
+      </c>
+      <c r="H104" t="n">
+        <v>3771200</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3773400</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3771600</v>
+      </c>
+      <c r="K104" t="n">
+        <v>3785200</v>
+      </c>
+      <c r="L104" t="n">
+        <v>3812537.634184844</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3729862.365815156</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>44601.04166666666</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3763000</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3770000</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3724000</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3728000</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1306.26343678</v>
+      </c>
+      <c r="G105" t="n">
+        <v>4897454620.32084</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3756600</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3771200</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3773400</v>
+      </c>
+      <c r="K105" t="n">
+        <v>3770900</v>
+      </c>
+      <c r="L105" t="n">
+        <v>3796864.12795529</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3716335.87204471</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>44601.08333333334</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3728000</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3746000</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3710000</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3728000</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1893.1375727</v>
+      </c>
+      <c r="G106" t="n">
+        <v>7057000970.11752</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3752400</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3756600</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3771200</v>
+      </c>
+      <c r="K106" t="n">
+        <v>3758300</v>
+      </c>
+      <c r="L106" t="n">
+        <v>3800287.367854164</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3704512.632145836</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44601.125</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3728000</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3749000</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3724000</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3744000</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1470.68338836</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5492416418.87331</v>
+      </c>
+      <c r="H107" t="n">
+        <v>3744600</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3752400</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3756600</v>
+      </c>
+      <c r="K107" t="n">
+        <v>3758100</v>
+      </c>
+      <c r="L107" t="n">
+        <v>3778114.176105045</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3711085.823894955</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44601.16666666666</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3744000</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3746000</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3711000</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3730000</v>
+      </c>
+      <c r="F108" t="n">
+        <v>911.83335175</v>
+      </c>
+      <c r="G108" t="n">
+        <v>3396892173.6056</v>
+      </c>
+      <c r="H108" t="n">
+        <v>3738400</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3744600</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3752400</v>
+      </c>
+      <c r="K108" t="n">
+        <v>3755900</v>
+      </c>
+      <c r="L108" t="n">
+        <v>3767983.779339361</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3708816.220660639</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44601.20833333334</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3730000</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3798000</v>
+      </c>
+      <c r="D109" t="n">
+        <v>3725000</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3796000</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1294.7581121</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4880683707.2242</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3745200</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3738400</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3744600</v>
+      </c>
+      <c r="K109" t="n">
+        <v>3758200</v>
+      </c>
+      <c r="L109" t="n">
+        <v>3803550.664092193</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3686849.335907807</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44601.25</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3798000</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3816000</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3785000</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3805000</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1307.74300245</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4971238499.01842</v>
+      </c>
+      <c r="H110" t="n">
+        <v>3760600</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3745200</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3738400</v>
+      </c>
+      <c r="K110" t="n">
+        <v>3758600</v>
+      </c>
+      <c r="L110" t="n">
+        <v>3834756.591075912</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3686443.408924088</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44601.29166666666</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3806000</v>
+      </c>
+      <c r="C111" t="n">
+        <v>3813000</v>
+      </c>
+      <c r="D111" t="n">
+        <v>3785000</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3805000</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1702.23249438</v>
+      </c>
+      <c r="G111" t="n">
+        <v>6471470126.90952</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3776000</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3760600</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3745200</v>
+      </c>
+      <c r="K111" t="n">
+        <v>3764200</v>
+      </c>
+      <c r="L111" t="n">
+        <v>3848263.407060558</v>
+      </c>
+      <c r="M111" t="n">
+        <v>3703736.592939442</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44601.33333333334</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3804000</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3828000</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3800000</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3801000</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1793.50088504</v>
+      </c>
+      <c r="G112" t="n">
+        <v>6837041757.9807</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3787400</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3776000</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3760600</v>
+      </c>
+      <c r="K112" t="n">
+        <v>3766000</v>
+      </c>
+      <c r="L112" t="n">
+        <v>3852000.309596781</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3722799.690403219</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44601.375</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3801000</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3812000</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3770000</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3808000</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2228.0225895</v>
+      </c>
+      <c r="G113" t="n">
+        <v>8457812698.8622</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3803000</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3787400</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3776000</v>
+      </c>
+      <c r="K113" t="n">
+        <v>3770700</v>
+      </c>
+      <c r="L113" t="n">
+        <v>3812273.618495496</v>
+      </c>
+      <c r="M113" t="n">
+        <v>3793726.381504504</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44601.41666666666</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3809000</v>
+      </c>
+      <c r="C114" t="n">
+        <v>3809000</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3763000</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3767000</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1259.49611199</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4771208224.79375</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3797200</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3803000</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3787400</v>
+      </c>
+      <c r="K114" t="n">
+        <v>3771200</v>
+      </c>
+      <c r="L114" t="n">
+        <v>3831329.166412322</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3763070.833587678</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44601.45833333334</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3771000</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3775000</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3722000</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3744000</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2584.46723265</v>
+      </c>
+      <c r="G115" t="n">
+        <v>9661975079.89188</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3785000</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3797200</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3803000</v>
+      </c>
+      <c r="K115" t="n">
+        <v>3772800</v>
+      </c>
+      <c r="L115" t="n">
+        <v>3841480.084985772</v>
+      </c>
+      <c r="M115" t="n">
+        <v>3728519.915014228</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44601.5</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3744000</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3755000</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3733000</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3738000</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1165.2247568</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4363842869.5244</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3771600</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3785000</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3797200</v>
+      </c>
+      <c r="K116" t="n">
+        <v>3773800</v>
+      </c>
+      <c r="L116" t="n">
+        <v>3835640.612114501</v>
+      </c>
+      <c r="M116" t="n">
+        <v>3707559.387885499</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44601.54166666666</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3741000</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3762000</v>
+      </c>
+      <c r="D117" t="n">
+        <v>3738000</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3756000</v>
+      </c>
+      <c r="F117" t="n">
+        <v>866.69410779</v>
+      </c>
+      <c r="G117" t="n">
+        <v>3252890540.13696</v>
+      </c>
+      <c r="H117" t="n">
+        <v>3762600</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3771600</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3785000</v>
+      </c>
+      <c r="K117" t="n">
+        <v>3775000</v>
+      </c>
+      <c r="L117" t="n">
+        <v>3818054.485841995</v>
+      </c>
+      <c r="M117" t="n">
+        <v>3707145.514158005</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>44601.58333333334</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3755000</v>
+      </c>
+      <c r="C118" t="n">
+        <v>3774000</v>
+      </c>
+      <c r="D118" t="n">
+        <v>3726000</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3754000</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2090.96149253</v>
+      </c>
+      <c r="G118" t="n">
+        <v>7836100946.04415</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3751800</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3762600</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3771600</v>
+      </c>
+      <c r="K118" t="n">
+        <v>3777400</v>
+      </c>
+      <c r="L118" t="n">
+        <v>3774267.754671974</v>
+      </c>
+      <c r="M118" t="n">
+        <v>3729332.245328026</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>44601.625</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3754000</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3780000</v>
+      </c>
+      <c r="D119" t="n">
+        <v>3750000</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3767000</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1247.49893022</v>
+      </c>
+      <c r="G119" t="n">
+        <v>4698888920.49214</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3751800</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3751800</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3762600</v>
+      </c>
+      <c r="K119" t="n">
+        <v>3774500</v>
+      </c>
+      <c r="L119" t="n">
+        <v>3774267.754671974</v>
+      </c>
+      <c r="M119" t="n">
+        <v>3729332.245328026</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>44601.66666666666</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3768000</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3779000</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3743000</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3776000</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1378.83812987</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5183473847.70834</v>
+      </c>
+      <c r="H120" t="n">
+        <v>3758200</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3751800</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3751800</v>
+      </c>
+      <c r="K120" t="n">
+        <v>3771600</v>
+      </c>
+      <c r="L120" t="n">
+        <v>3786919.331468542</v>
+      </c>
+      <c r="M120" t="n">
+        <v>3729480.668531458</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>44601.70833333334</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3776000</v>
+      </c>
+      <c r="C121" t="n">
+        <v>3780000</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3740000</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3771000</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1449.79214296</v>
+      </c>
+      <c r="G121" t="n">
+        <v>5451529336.48963</v>
+      </c>
+      <c r="H121" t="n">
+        <v>3764800</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3758200</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3751800</v>
+      </c>
+      <c r="K121" t="n">
+        <v>3768200</v>
+      </c>
+      <c r="L121" t="n">
+        <v>3783847.309521295</v>
+      </c>
+      <c r="M121" t="n">
+        <v>3745752.690478705</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>44601.75</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3771000</v>
+      </c>
+      <c r="C122" t="n">
+        <v>3792000</v>
+      </c>
+      <c r="D122" t="n">
+        <v>3761000</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3765000</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1926.27712303</v>
+      </c>
+      <c r="G122" t="n">
+        <v>7282739171.3859</v>
+      </c>
+      <c r="H122" t="n">
+        <v>3766600</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3764800</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3758200</v>
+      </c>
+      <c r="K122" t="n">
+        <v>3764600</v>
+      </c>
+      <c r="L122" t="n">
+        <v>3783007.315441595</v>
+      </c>
+      <c r="M122" t="n">
+        <v>3750192.684558405</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>44601.79166666666</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3764000</v>
+      </c>
+      <c r="C123" t="n">
+        <v>3816000</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3763000</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3807000</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2466.95480411</v>
+      </c>
+      <c r="G123" t="n">
+        <v>9375704847.60569</v>
+      </c>
+      <c r="H123" t="n">
+        <v>3777200</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3766600</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3764800</v>
+      </c>
+      <c r="K123" t="n">
+        <v>3764500</v>
+      </c>
+      <c r="L123" t="n">
+        <v>3811562.770551863</v>
+      </c>
+      <c r="M123" t="n">
+        <v>3742837.229448137</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>44601.83333333334</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3809000</v>
+      </c>
+      <c r="C124" t="n">
+        <v>3832000</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3793000</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3829000</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1729.08012618</v>
+      </c>
+      <c r="G124" t="n">
+        <v>6596835358.676</v>
+      </c>
+      <c r="H124" t="n">
+        <v>3789600</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3777200</v>
+      </c>
+      <c r="J124" t="n">
+        <v>3766600</v>
+      </c>
+      <c r="K124" t="n">
+        <v>3770700</v>
+      </c>
+      <c r="L124" t="n">
+        <v>3844291.864111584</v>
+      </c>
+      <c r="M124" t="n">
+        <v>3734908.135888416</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>44601.875</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3831000</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3866000</v>
+      </c>
+      <c r="D125" t="n">
+        <v>3814000</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3851000</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2643.58485281</v>
+      </c>
+      <c r="G125" t="n">
+        <v>10152813273.40445</v>
+      </c>
+      <c r="H125" t="n">
+        <v>3804600</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3789600</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3777200</v>
+      </c>
+      <c r="K125" t="n">
+        <v>3781400</v>
+      </c>
+      <c r="L125" t="n">
+        <v>3878432.242279373</v>
+      </c>
+      <c r="M125" t="n">
+        <v>3730767.757720627</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>44601.91666666666</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3852000</v>
+      </c>
+      <c r="C126" t="n">
+        <v>3885000</v>
+      </c>
+      <c r="D126" t="n">
+        <v>3846000</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3856000</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3252.0800462</v>
+      </c>
+      <c r="G126" t="n">
+        <v>12573969879.29886</v>
+      </c>
+      <c r="H126" t="n">
+        <v>3821600</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3804600</v>
+      </c>
+      <c r="J126" t="n">
+        <v>3789600</v>
+      </c>
+      <c r="K126" t="n">
+        <v>3793200</v>
+      </c>
+      <c r="L126" t="n">
+        <v>3895891.318469926</v>
+      </c>
+      <c r="M126" t="n">
+        <v>3747308.681530074</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>44601.95833333334</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3855000</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3883000</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3823000</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3858000</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2648.26459821</v>
+      </c>
+      <c r="G127" t="n">
+        <v>10209596926.83818</v>
+      </c>
+      <c r="H127" t="n">
+        <v>3840200</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3821600</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3804600</v>
+      </c>
+      <c r="K127" t="n">
+        <v>3803400</v>
+      </c>
+      <c r="L127" t="n">
+        <v>3883912.698383879</v>
+      </c>
+      <c r="M127" t="n">
+        <v>3796487.301616121</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B128" t="n">
+        <v>3859000</v>
+      </c>
+      <c r="C128" t="n">
+        <v>3868000</v>
+      </c>
+      <c r="D128" t="n">
+        <v>3830000</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3846000</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1273.54083858</v>
+      </c>
+      <c r="G128" t="n">
+        <v>4893496738.40408</v>
+      </c>
+      <c r="H128" t="n">
+        <v>3848000</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3840200</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3821600</v>
+      </c>
+      <c r="K128" t="n">
+        <v>3812600</v>
+      </c>
+      <c r="L128" t="n">
+        <v>3871194.827009487</v>
+      </c>
+      <c r="M128" t="n">
+        <v>3824805.172990513</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>44602.04166666666</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3847000</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3880000</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3831000</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3869000</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1058.16099952</v>
+      </c>
+      <c r="G129" t="n">
+        <v>4083049619.60272</v>
+      </c>
+      <c r="H129" t="n">
+        <v>3856000</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3848000</v>
+      </c>
+      <c r="J129" t="n">
+        <v>3840200</v>
+      </c>
+      <c r="K129" t="n">
+        <v>3822800</v>
+      </c>
+      <c r="L129" t="n">
+        <v>3873262.676501632</v>
+      </c>
+      <c r="M129" t="n">
+        <v>3838737.323498368</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>44602.08333333334</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3875000</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3884000</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3863000</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3867000</v>
+      </c>
+      <c r="F130" t="n">
+        <v>652.59371661</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2528671651.76501</v>
+      </c>
+      <c r="H130" t="n">
+        <v>3859200</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3856000</v>
+      </c>
+      <c r="J130" t="n">
+        <v>3848000</v>
+      </c>
+      <c r="K130" t="n">
+        <v>3831900</v>
+      </c>
+      <c r="L130" t="n">
+        <v>3877714.858897653</v>
+      </c>
+      <c r="M130" t="n">
+        <v>3840685.141102347</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>44602.125</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3869000</v>
+      </c>
+      <c r="C131" t="n">
+        <v>3879000</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3852000</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3875000</v>
+      </c>
+      <c r="F131" t="n">
+        <v>370.02899978</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1429928039.19037</v>
+      </c>
+      <c r="H131" t="n">
+        <v>3863000</v>
+      </c>
+      <c r="I131" t="n">
+        <v>3859200</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3856000</v>
+      </c>
+      <c r="K131" t="n">
+        <v>3842300</v>
+      </c>
+      <c r="L131" t="n">
+        <v>3885583.179581272</v>
+      </c>
+      <c r="M131" t="n">
+        <v>3840416.820418728</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>44602.16666666666</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3879000</v>
+      </c>
+      <c r="C132" t="n">
+        <v>3928000</v>
+      </c>
+      <c r="D132" t="n">
+        <v>3876000</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3923000</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2267.55073086</v>
+      </c>
+      <c r="G132" t="n">
+        <v>8856609518.90498</v>
+      </c>
+      <c r="H132" t="n">
+        <v>3876000</v>
+      </c>
+      <c r="I132" t="n">
+        <v>3863000</v>
+      </c>
+      <c r="J132" t="n">
+        <v>3859200</v>
+      </c>
+      <c r="K132" t="n">
+        <v>3858100</v>
+      </c>
+      <c r="L132" t="n">
+        <v>3932920.997883031</v>
+      </c>
+      <c r="M132" t="n">
+        <v>3819079.002116969</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>44602.20833333334</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3923000</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3944000</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3919000</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3927000</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1221.15375858</v>
+      </c>
+      <c r="G133" t="n">
+        <v>4801368343.35502</v>
+      </c>
+      <c r="H133" t="n">
+        <v>3892200</v>
+      </c>
+      <c r="I133" t="n">
+        <v>3876000</v>
+      </c>
+      <c r="J133" t="n">
+        <v>3863000</v>
+      </c>
+      <c r="K133" t="n">
+        <v>3870100</v>
+      </c>
+      <c r="L133" t="n">
+        <v>3952439.521910453</v>
+      </c>
+      <c r="M133" t="n">
+        <v>3831960.478089547</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>44602.25</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3931000</v>
+      </c>
+      <c r="C134" t="n">
+        <v>3933000</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3904000</v>
+      </c>
+      <c r="F134" t="n">
+        <v>948.25747385</v>
+      </c>
+      <c r="G134" t="n">
+        <v>3716725913.0712</v>
+      </c>
+      <c r="H134" t="n">
+        <v>3899200</v>
+      </c>
+      <c r="I134" t="n">
+        <v>3892200</v>
+      </c>
+      <c r="J134" t="n">
+        <v>3876000</v>
+      </c>
+      <c r="K134" t="n">
+        <v>3877600</v>
+      </c>
+      <c r="L134" t="n">
+        <v>3953833.32316453</v>
+      </c>
+      <c r="M134" t="n">
+        <v>3844566.67683547</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>44602.29166666666</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3907000</v>
+      </c>
+      <c r="C135" t="n">
+        <v>3929000</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3921000</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1415.53375287</v>
+      </c>
+      <c r="G135" t="n">
+        <v>5541388024.39149</v>
+      </c>
+      <c r="H135" t="n">
+        <v>3910000</v>
+      </c>
+      <c r="I135" t="n">
+        <v>3899200</v>
+      </c>
+      <c r="J135" t="n">
+        <v>3892200</v>
+      </c>
+      <c r="K135" t="n">
+        <v>3884600</v>
+      </c>
+      <c r="L135" t="n">
+        <v>3952895.221179055</v>
+      </c>
+      <c r="M135" t="n">
+        <v>3867104.778820945</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>44602.33333333334</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3923000</v>
+      </c>
+      <c r="C136" t="n">
+        <v>3923000</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3906000</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3916000</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2021.18187975</v>
+      </c>
+      <c r="G136" t="n">
+        <v>7909563678.19066</v>
+      </c>
+      <c r="H136" t="n">
+        <v>3918200</v>
+      </c>
+      <c r="I136" t="n">
+        <v>3910000</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3899200</v>
+      </c>
+      <c r="K136" t="n">
+        <v>3890600</v>
+      </c>
+      <c r="L136" t="n">
+        <v>3935942.604092973</v>
+      </c>
+      <c r="M136" t="n">
+        <v>3900457.395907027</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>44602.375</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3917000</v>
+      </c>
+      <c r="C137" t="n">
+        <v>3929000</v>
+      </c>
+      <c r="D137" t="n">
+        <v>3890000</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3899000</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2322.93373442</v>
+      </c>
+      <c r="G137" t="n">
+        <v>9078029920.60626</v>
+      </c>
+      <c r="H137" t="n">
+        <v>3913400</v>
+      </c>
+      <c r="I137" t="n">
+        <v>3918200</v>
+      </c>
+      <c r="J137" t="n">
+        <v>3910000</v>
+      </c>
+      <c r="K137" t="n">
+        <v>3894700</v>
+      </c>
+      <c r="L137" t="n">
+        <v>3936749.518196314</v>
+      </c>
+      <c r="M137" t="n">
+        <v>3890050.481803686</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>44602.41666666666</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="C138" t="n">
+        <v>3913000</v>
+      </c>
+      <c r="D138" t="n">
+        <v>3891000</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3912000</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1647.90316732</v>
+      </c>
+      <c r="G138" t="n">
+        <v>6434530877.77108</v>
+      </c>
+      <c r="H138" t="n">
+        <v>3910400</v>
+      </c>
+      <c r="I138" t="n">
+        <v>3913400</v>
+      </c>
+      <c r="J138" t="n">
+        <v>3918200</v>
+      </c>
+      <c r="K138" t="n">
+        <v>3901300</v>
+      </c>
+      <c r="L138" t="n">
+        <v>3928210.109488714</v>
+      </c>
+      <c r="M138" t="n">
+        <v>3892589.890511286</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>44602.45833333334</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3912000</v>
+      </c>
+      <c r="C139" t="n">
+        <v>3916000</v>
+      </c>
+      <c r="D139" t="n">
+        <v>3871000</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3872000</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2066.9103976</v>
+      </c>
+      <c r="G139" t="n">
+        <v>8066933770.89419</v>
+      </c>
+      <c r="H139" t="n">
+        <v>3904000</v>
+      </c>
+      <c r="I139" t="n">
+        <v>3910400</v>
+      </c>
+      <c r="J139" t="n">
+        <v>3913400</v>
+      </c>
+      <c r="K139" t="n">
+        <v>3901600</v>
+      </c>
+      <c r="L139" t="n">
+        <v>3943319.206502675</v>
+      </c>
+      <c r="M139" t="n">
+        <v>3864680.793497325</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>44602.5</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3871000</v>
+      </c>
+      <c r="C140" t="n">
+        <v>3877000</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3845000</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3850000</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2924.55430288</v>
+      </c>
+      <c r="G140" t="n">
+        <v>11285464336.87345</v>
+      </c>
+      <c r="H140" t="n">
+        <v>3889800</v>
+      </c>
+      <c r="I140" t="n">
+        <v>3904000</v>
+      </c>
+      <c r="J140" t="n">
+        <v>3910400</v>
+      </c>
+      <c r="K140" t="n">
+        <v>3899900</v>
+      </c>
+      <c r="L140" t="n">
+        <v>3946056.555173597</v>
+      </c>
+      <c r="M140" t="n">
+        <v>3833543.444826403</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>44602.54166666666</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3849000</v>
+      </c>
+      <c r="C141" t="n">
+        <v>3870000</v>
+      </c>
+      <c r="D141" t="n">
+        <v>3836000</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3838000</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1693.65967032</v>
+      </c>
+      <c r="G141" t="n">
+        <v>6521455836.18829</v>
+      </c>
+      <c r="H141" t="n">
+        <v>3874200</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3889800</v>
+      </c>
+      <c r="J141" t="n">
+        <v>3904000</v>
+      </c>
+      <c r="K141" t="n">
+        <v>3896200</v>
+      </c>
+      <c r="L141" t="n">
+        <v>3937007.642847029</v>
+      </c>
+      <c r="M141" t="n">
+        <v>3811392.357152971</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>44602.58333333334</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3838000</v>
+      </c>
+      <c r="C142" t="n">
+        <v>3843000</v>
+      </c>
+      <c r="D142" t="n">
+        <v>3821000</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3832000</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1723.04315083</v>
+      </c>
+      <c r="G142" t="n">
+        <v>6598691776.05267</v>
+      </c>
+      <c r="H142" t="n">
+        <v>3860800</v>
+      </c>
+      <c r="I142" t="n">
+        <v>3874200</v>
+      </c>
+      <c r="J142" t="n">
+        <v>3889800</v>
+      </c>
+      <c r="K142" t="n">
+        <v>3887100</v>
+      </c>
+      <c r="L142" t="n">
+        <v>3925706.086001237</v>
+      </c>
+      <c r="M142" t="n">
+        <v>3795893.913998763</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>44602.625</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3833000</v>
+      </c>
+      <c r="C143" t="n">
+        <v>3863000</v>
+      </c>
+      <c r="D143" t="n">
+        <v>3825000</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3852000</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1216.33294139</v>
+      </c>
+      <c r="G143" t="n">
+        <v>4674951255.8482</v>
+      </c>
+      <c r="H143" t="n">
+        <v>3848800</v>
+      </c>
+      <c r="I143" t="n">
+        <v>3860800</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3874200</v>
+      </c>
+      <c r="K143" t="n">
+        <v>3879600</v>
+      </c>
+      <c r="L143" t="n">
+        <v>3879602.597293085</v>
+      </c>
+      <c r="M143" t="n">
+        <v>3817997.402706915</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>44602.66666666666</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3853000</v>
+      </c>
+      <c r="C144" t="n">
+        <v>3868000</v>
+      </c>
+      <c r="D144" t="n">
+        <v>3851000</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3865000</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1089.65142694</v>
+      </c>
+      <c r="G144" t="n">
+        <v>4204696674.77098</v>
+      </c>
+      <c r="H144" t="n">
+        <v>3847400</v>
+      </c>
+      <c r="I144" t="n">
+        <v>3848800</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3860800</v>
+      </c>
+      <c r="K144" t="n">
+        <v>3875700</v>
+      </c>
+      <c r="L144" t="n">
+        <v>3873152.669764512</v>
+      </c>
+      <c r="M144" t="n">
+        <v>3821647.330235488</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>44602.70833333334</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3864000</v>
+      </c>
+      <c r="C145" t="n">
+        <v>3883000</v>
+      </c>
+      <c r="D145" t="n">
+        <v>3861000</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3873000</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1484.16583739</v>
+      </c>
+      <c r="G145" t="n">
+        <v>5746297578.03687</v>
+      </c>
+      <c r="H145" t="n">
+        <v>3852000</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3847400</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3848800</v>
+      </c>
+      <c r="K145" t="n">
+        <v>3870900</v>
+      </c>
+      <c r="L145" t="n">
+        <v>3886727.510708371</v>
+      </c>
+      <c r="M145" t="n">
+        <v>3817272.489291629</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>44602.75</v>
+      </c>
+      <c r="B146" t="n">
+        <v>3873000</v>
+      </c>
+      <c r="C146" t="n">
+        <v>3890000</v>
+      </c>
+      <c r="D146" t="n">
+        <v>3858000</v>
+      </c>
+      <c r="E146" t="n">
+        <v>3888000</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1887.48873414</v>
+      </c>
+      <c r="G146" t="n">
+        <v>7315864178.2889</v>
+      </c>
+      <c r="H146" t="n">
+        <v>3862000</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3852000</v>
+      </c>
+      <c r="J146" t="n">
+        <v>3847400</v>
+      </c>
+      <c r="K146" t="n">
+        <v>3868100</v>
+      </c>
+      <c r="L146" t="n">
+        <v>3904497.058721751</v>
+      </c>
+      <c r="M146" t="n">
+        <v>3819502.941278249</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>44602.79166666666</v>
+      </c>
+      <c r="B147" t="n">
+        <v>3890000</v>
+      </c>
+      <c r="C147" t="n">
+        <v>3939000</v>
+      </c>
+      <c r="D147" t="n">
+        <v>3886000</v>
+      </c>
+      <c r="E147" t="n">
+        <v>3918000</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3291.9492275</v>
+      </c>
+      <c r="G147" t="n">
+        <v>12905968066.63217</v>
+      </c>
+      <c r="H147" t="n">
+        <v>3879200</v>
+      </c>
+      <c r="I147" t="n">
+        <v>3862000</v>
+      </c>
+      <c r="J147" t="n">
+        <v>3852000</v>
+      </c>
+      <c r="K147" t="n">
+        <v>3870000</v>
+      </c>
+      <c r="L147" t="n">
+        <v>3929824.104930359</v>
+      </c>
+      <c r="M147" t="n">
+        <v>3828575.895069641</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>44602.83333333334</v>
+      </c>
+      <c r="B148" t="n">
+        <v>3918000</v>
+      </c>
+      <c r="C148" t="n">
+        <v>3956000</v>
+      </c>
+      <c r="D148" t="n">
+        <v>3905000</v>
+      </c>
+      <c r="E148" t="n">
+        <v>3927000</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4042.14558351</v>
+      </c>
+      <c r="G148" t="n">
+        <v>15894846641.5779</v>
+      </c>
+      <c r="H148" t="n">
+        <v>3894200</v>
+      </c>
+      <c r="I148" t="n">
+        <v>3879200</v>
+      </c>
+      <c r="J148" t="n">
+        <v>3862000</v>
+      </c>
+      <c r="K148" t="n">
+        <v>3871500</v>
+      </c>
+      <c r="L148" t="n">
+        <v>3948815.016250112</v>
+      </c>
+      <c r="M148" t="n">
+        <v>3839584.983749888</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>44602.875</v>
+      </c>
+      <c r="B149" t="n">
+        <v>3927000</v>
+      </c>
+      <c r="C149" t="n">
+        <v>3938000</v>
+      </c>
+      <c r="D149" t="n">
+        <v>3915000</v>
+      </c>
+      <c r="E149" t="n">
+        <v>3930000</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2162.93676004</v>
+      </c>
+      <c r="G149" t="n">
+        <v>8491465303.04197</v>
+      </c>
+      <c r="H149" t="n">
+        <v>3907200</v>
+      </c>
+      <c r="I149" t="n">
+        <v>3894200</v>
+      </c>
+      <c r="J149" t="n">
+        <v>3879200</v>
+      </c>
+      <c r="K149" t="n">
+        <v>3877300</v>
+      </c>
+      <c r="L149" t="n">
+        <v>3957863.596398203</v>
+      </c>
+      <c r="M149" t="n">
+        <v>3856536.403601797</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44602.91666666666</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3930000</v>
+      </c>
+      <c r="C150" t="n">
+        <v>3945000</v>
+      </c>
+      <c r="D150" t="n">
+        <v>3799000</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3805000</v>
+      </c>
+      <c r="F150" t="n">
+        <v>11557.1518974</v>
+      </c>
+      <c r="G150" t="n">
+        <v>44403717442.22866</v>
+      </c>
+      <c r="H150" t="n">
+        <v>3893600</v>
+      </c>
+      <c r="I150" t="n">
+        <v>3907200</v>
+      </c>
+      <c r="J150" t="n">
+        <v>3894200</v>
+      </c>
+      <c r="K150" t="n">
+        <v>3872800</v>
+      </c>
+      <c r="L150" t="n">
+        <v>3998085.405679454</v>
+      </c>
+      <c r="M150" t="n">
+        <v>3789114.594320546</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44602.95833333334</v>
+      </c>
+      <c r="B151" t="n">
+        <v>3805000</v>
+      </c>
+      <c r="C151" t="n">
+        <v>3858000</v>
+      </c>
+      <c r="D151" t="n">
+        <v>3760000</v>
+      </c>
+      <c r="E151" t="n">
+        <v>3853000</v>
+      </c>
+      <c r="F151" t="n">
+        <v>9441.201412980001</v>
+      </c>
+      <c r="G151" t="n">
+        <v>35842562316.95591</v>
+      </c>
+      <c r="H151" t="n">
+        <v>3886600</v>
+      </c>
+      <c r="I151" t="n">
+        <v>3893600</v>
+      </c>
+      <c r="J151" t="n">
+        <v>3907200</v>
+      </c>
+      <c r="K151" t="n">
+        <v>3874300</v>
+      </c>
+      <c r="L151" t="n">
+        <v>3997456.664211043</v>
+      </c>
+      <c r="M151" t="n">
+        <v>3775743.335788957</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B152" t="n">
+        <v>3853000</v>
+      </c>
+      <c r="C152" t="n">
+        <v>3941000</v>
+      </c>
+      <c r="D152" t="n">
+        <v>3847000</v>
+      </c>
+      <c r="E152" t="n">
+        <v>3884000</v>
+      </c>
+      <c r="F152" t="n">
+        <v>11262.48451521</v>
+      </c>
+      <c r="G152" t="n">
+        <v>43936322982.64239</v>
+      </c>
+      <c r="H152" t="n">
+        <v>3879800</v>
+      </c>
+      <c r="I152" t="n">
+        <v>3886600</v>
+      </c>
+      <c r="J152" t="n">
+        <v>3893600</v>
+      </c>
+      <c r="K152" t="n">
+        <v>3879500</v>
+      </c>
+      <c r="L152" t="n">
+        <v>3985055.878695681</v>
+      </c>
+      <c r="M152" t="n">
+        <v>3774544.121304319</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44603.04166666666</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3885000</v>
+      </c>
+      <c r="C153" t="n">
+        <v>3910000</v>
+      </c>
+      <c r="D153" t="n">
+        <v>3865000</v>
+      </c>
+      <c r="E153" t="n">
+        <v>3906000</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2718.08451255</v>
+      </c>
+      <c r="G153" t="n">
+        <v>10568968573.73698</v>
+      </c>
+      <c r="H153" t="n">
+        <v>3875600</v>
+      </c>
+      <c r="I153" t="n">
+        <v>3879800</v>
+      </c>
+      <c r="J153" t="n">
+        <v>3886600</v>
+      </c>
+      <c r="K153" t="n">
+        <v>3884900</v>
+      </c>
+      <c r="L153" t="n">
+        <v>3972806.99563303</v>
+      </c>
+      <c r="M153" t="n">
+        <v>3778393.00436697</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>44603.08333333334</v>
+      </c>
+      <c r="B154" t="n">
+        <v>3910000</v>
+      </c>
+      <c r="C154" t="n">
+        <v>3930000</v>
+      </c>
+      <c r="D154" t="n">
+        <v>3878000</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3902000</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1657.10947459</v>
+      </c>
+      <c r="G154" t="n">
+        <v>6477808831.244</v>
+      </c>
+      <c r="H154" t="n">
+        <v>3870000</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3875600</v>
+      </c>
+      <c r="J154" t="n">
+        <v>3879800</v>
+      </c>
+      <c r="K154" t="n">
+        <v>3888600</v>
+      </c>
+      <c r="L154" t="n">
+        <v>3953845.095265018</v>
+      </c>
+      <c r="M154" t="n">
+        <v>3786154.904734982</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>44603.125</v>
+      </c>
+      <c r="B155" t="n">
+        <v>3902000</v>
+      </c>
+      <c r="C155" t="n">
+        <v>3908000</v>
+      </c>
+      <c r="D155" t="n">
+        <v>3840000</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3870000</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1545.09076499</v>
+      </c>
+      <c r="G155" t="n">
+        <v>5978876589.09783</v>
+      </c>
+      <c r="H155" t="n">
+        <v>3883000</v>
+      </c>
+      <c r="I155" t="n">
+        <v>3870000</v>
+      </c>
+      <c r="J155" t="n">
+        <v>3875600</v>
+      </c>
+      <c r="K155" t="n">
+        <v>3888300</v>
+      </c>
+      <c r="L155" t="n">
+        <v>3927271.887242357</v>
+      </c>
+      <c r="M155" t="n">
+        <v>3838728.112757643</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44603.16666666666</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3870000</v>
+      </c>
+      <c r="C156" t="n">
+        <v>3875000</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3802000</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3808000</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1963.05034732</v>
+      </c>
+      <c r="G156" t="n">
+        <v>7514008611.36392</v>
+      </c>
+      <c r="H156" t="n">
+        <v>3874000</v>
+      </c>
+      <c r="I156" t="n">
+        <v>3883000</v>
+      </c>
+      <c r="J156" t="n">
+        <v>3870000</v>
+      </c>
+      <c r="K156" t="n">
+        <v>3880300</v>
+      </c>
+      <c r="L156" t="n">
+        <v>3953246.451024636</v>
+      </c>
+      <c r="M156" t="n">
+        <v>3794753.548975364</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44603.20833333334</v>
+      </c>
+      <c r="B157" t="n">
+        <v>3808000</v>
+      </c>
+      <c r="C157" t="n">
+        <v>3829000</v>
+      </c>
+      <c r="D157" t="n">
+        <v>3775000</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3801000</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2464.8299861</v>
+      </c>
+      <c r="G157" t="n">
+        <v>9359339202.73406</v>
+      </c>
+      <c r="H157" t="n">
+        <v>3857400</v>
+      </c>
+      <c r="I157" t="n">
+        <v>3874000</v>
+      </c>
+      <c r="J157" t="n">
+        <v>3883000</v>
+      </c>
+      <c r="K157" t="n">
+        <v>3868600</v>
+      </c>
+      <c r="L157" t="n">
+        <v>3958053.86232033</v>
+      </c>
+      <c r="M157" t="n">
+        <v>3756746.13767967</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>44603.25</v>
+      </c>
+      <c r="B158" t="n">
+        <v>3802000</v>
+      </c>
+      <c r="C158" t="n">
+        <v>3821000</v>
+      </c>
+      <c r="D158" t="n">
+        <v>3779000</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3794000</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1840.12066933</v>
+      </c>
+      <c r="G158" t="n">
+        <v>6993346597.42832</v>
+      </c>
+      <c r="H158" t="n">
+        <v>3835000</v>
+      </c>
+      <c r="I158" t="n">
+        <v>3857400</v>
+      </c>
+      <c r="J158" t="n">
+        <v>3874000</v>
+      </c>
+      <c r="K158" t="n">
+        <v>3855300</v>
+      </c>
+      <c r="L158" t="n">
+        <v>3931332.756630338</v>
+      </c>
+      <c r="M158" t="n">
+        <v>3738667.243369662</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>44603.29166666666</v>
+      </c>
+      <c r="B159" t="n">
+        <v>3796000</v>
+      </c>
+      <c r="C159" t="n">
+        <v>3821000</v>
+      </c>
+      <c r="D159" t="n">
+        <v>3786000</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3802000</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1564.42596763</v>
+      </c>
+      <c r="G159" t="n">
+        <v>5950434007.16429</v>
+      </c>
+      <c r="H159" t="n">
+        <v>3815000</v>
+      </c>
+      <c r="I159" t="n">
+        <v>3835000</v>
+      </c>
+      <c r="J159" t="n">
+        <v>3857400</v>
+      </c>
+      <c r="K159" t="n">
+        <v>3842500</v>
+      </c>
+      <c r="L159" t="n">
+        <v>3877289.64600959</v>
+      </c>
+      <c r="M159" t="n">
+        <v>3752710.35399041</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44603.33333333334</v>
+      </c>
+      <c r="B160" t="n">
+        <v>3806000</v>
+      </c>
+      <c r="C160" t="n">
+        <v>3806000</v>
+      </c>
+      <c r="D160" t="n">
+        <v>3741000</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3754000</v>
+      </c>
+      <c r="F160" t="n">
+        <v>4337.44398387</v>
+      </c>
+      <c r="G160" t="n">
+        <v>16336080000.55746</v>
+      </c>
+      <c r="H160" t="n">
+        <v>3791800</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3815000</v>
+      </c>
+      <c r="J160" t="n">
+        <v>3835000</v>
+      </c>
+      <c r="K160" t="n">
+        <v>3837400</v>
+      </c>
+      <c r="L160" t="n">
+        <v>3835214.283363889</v>
+      </c>
+      <c r="M160" t="n">
+        <v>3748385.716636111</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>44603.375</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3752000</v>
+      </c>
+      <c r="C161" t="n">
+        <v>3757000</v>
+      </c>
+      <c r="D161" t="n">
+        <v>3670000</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3722000</v>
+      </c>
+      <c r="F161" t="n">
+        <v>8027.32715526</v>
+      </c>
+      <c r="G161" t="n">
+        <v>29779248281.54482</v>
+      </c>
+      <c r="H161" t="n">
+        <v>3774600</v>
+      </c>
+      <c r="I161" t="n">
+        <v>3791800</v>
+      </c>
+      <c r="J161" t="n">
+        <v>3815000</v>
+      </c>
+      <c r="K161" t="n">
+        <v>3824300</v>
+      </c>
+      <c r="L161" t="n">
+        <v>3845418.076788345</v>
+      </c>
+      <c r="M161" t="n">
+        <v>3703781.923211655</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>44603.41666666666</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3723000</v>
+      </c>
+      <c r="C162" t="n">
+        <v>3777000</v>
+      </c>
+      <c r="D162" t="n">
+        <v>3708000</v>
+      </c>
+      <c r="E162" t="n">
+        <v>3744000</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3328.23470583</v>
+      </c>
+      <c r="G162" t="n">
+        <v>12479637147.33323</v>
+      </c>
+      <c r="H162" t="n">
+        <v>3763200</v>
+      </c>
+      <c r="I162" t="n">
+        <v>3774600</v>
+      </c>
+      <c r="J162" t="n">
+        <v>3791800</v>
+      </c>
+      <c r="K162" t="n">
+        <v>3810300</v>
+      </c>
+      <c r="L162" t="n">
+        <v>3831058.676674394</v>
+      </c>
+      <c r="M162" t="n">
+        <v>3695341.323325606</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>44603.45833333334</v>
+      </c>
+      <c r="B163" t="n">
+        <v>3745000</v>
+      </c>
+      <c r="C163" t="n">
+        <v>3745000</v>
+      </c>
+      <c r="D163" t="n">
+        <v>3711000</v>
+      </c>
+      <c r="E163" t="n">
+        <v>3722000</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2515.67339155</v>
+      </c>
+      <c r="G163" t="n">
+        <v>9361976686.45208</v>
+      </c>
+      <c r="H163" t="n">
+        <v>3748800</v>
+      </c>
+      <c r="I163" t="n">
+        <v>3763200</v>
+      </c>
+      <c r="J163" t="n">
+        <v>3774600</v>
+      </c>
+      <c r="K163" t="n">
+        <v>3791900</v>
+      </c>
+      <c r="L163" t="n">
+        <v>3814502.359166167</v>
+      </c>
+      <c r="M163" t="n">
+        <v>3683097.640833833</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>44603.5</v>
+      </c>
+      <c r="B164" t="n">
+        <v>3721000</v>
+      </c>
+      <c r="C164" t="n">
+        <v>3756000</v>
+      </c>
+      <c r="D164" t="n">
+        <v>3716000</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3752000</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1674.71122114</v>
+      </c>
+      <c r="G164" t="n">
+        <v>6251215817.02403</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3738800</v>
+      </c>
+      <c r="I164" t="n">
+        <v>3748800</v>
+      </c>
+      <c r="J164" t="n">
+        <v>3763200</v>
+      </c>
+      <c r="K164" t="n">
+        <v>3776900</v>
+      </c>
+      <c r="L164" t="n">
+        <v>3770372.139617074</v>
+      </c>
+      <c r="M164" t="n">
+        <v>3707227.860382926</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>44603.54166666666</v>
+      </c>
+      <c r="B165" t="n">
+        <v>3752000</v>
+      </c>
+      <c r="C165" t="n">
+        <v>3755000</v>
+      </c>
+      <c r="D165" t="n">
+        <v>3725000</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3736000</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1337.31423585</v>
+      </c>
+      <c r="G165" t="n">
+        <v>4999748603.86993</v>
+      </c>
+      <c r="H165" t="n">
+        <v>3735200</v>
+      </c>
+      <c r="I165" t="n">
+        <v>3738800</v>
+      </c>
+      <c r="J165" t="n">
+        <v>3748800</v>
+      </c>
+      <c r="K165" t="n">
+        <v>3763500</v>
+      </c>
+      <c r="L165" t="n">
+        <v>3761823.29806767</v>
+      </c>
+      <c r="M165" t="n">
+        <v>3708576.70193233</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>44603.58333333334</v>
+      </c>
+      <c r="B166" t="n">
+        <v>3736000</v>
+      </c>
+      <c r="C166" t="n">
+        <v>3737000</v>
+      </c>
+      <c r="D166" t="n">
+        <v>3709000</v>
+      </c>
+      <c r="E166" t="n">
+        <v>3716000</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1710.38161034</v>
+      </c>
+      <c r="G166" t="n">
+        <v>6364743260.82704</v>
+      </c>
+      <c r="H166" t="n">
+        <v>3734000</v>
+      </c>
+      <c r="I166" t="n">
+        <v>3735200</v>
+      </c>
+      <c r="J166" t="n">
+        <v>3738800</v>
+      </c>
+      <c r="K166" t="n">
+        <v>3754300</v>
+      </c>
+      <c r="L166" t="n">
+        <v>3763933.259094191</v>
+      </c>
+      <c r="M166" t="n">
+        <v>3704066.740905809</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>44603.625</v>
+      </c>
+      <c r="B167" t="n">
+        <v>3716000</v>
+      </c>
+      <c r="C167" t="n">
+        <v>3751000</v>
+      </c>
+      <c r="D167" t="n">
+        <v>3707000</v>
+      </c>
+      <c r="E167" t="n">
+        <v>3749000</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1381.31231156</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5155190399.31562</v>
+      </c>
+      <c r="H167" t="n">
+        <v>3735000</v>
+      </c>
+      <c r="I167" t="n">
+        <v>3734000</v>
+      </c>
+      <c r="J167" t="n">
+        <v>3735200</v>
+      </c>
+      <c r="K167" t="n">
+        <v>3749100</v>
+      </c>
+      <c r="L167" t="n">
+        <v>3766874.754901018</v>
+      </c>
+      <c r="M167" t="n">
+        <v>3703125.245098982</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>44603.66666666666</v>
+      </c>
+      <c r="B168" t="n">
+        <v>3749000</v>
+      </c>
+      <c r="C168" t="n">
+        <v>3781000</v>
+      </c>
+      <c r="D168" t="n">
+        <v>3742000</v>
+      </c>
+      <c r="E168" t="n">
+        <v>3772000</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2052.3479035</v>
+      </c>
+      <c r="G168" t="n">
+        <v>7719126339.15188</v>
+      </c>
+      <c r="H168" t="n">
+        <v>3745000</v>
+      </c>
+      <c r="I168" t="n">
+        <v>3735000</v>
+      </c>
+      <c r="J168" t="n">
+        <v>3734000</v>
+      </c>
+      <c r="K168" t="n">
+        <v>3746900</v>
+      </c>
+      <c r="L168" t="n">
+        <v>3786424.630354416</v>
+      </c>
+      <c r="M168" t="n">
+        <v>3703575.369645584</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>44603.70833333334</v>
+      </c>
+      <c r="B169" t="n">
+        <v>3774000</v>
+      </c>
+      <c r="C169" t="n">
+        <v>3785000</v>
+      </c>
+      <c r="D169" t="n">
+        <v>3741000</v>
+      </c>
+      <c r="E169" t="n">
+        <v>3742000</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2051.84392413</v>
+      </c>
+      <c r="G169" t="n">
+        <v>7738057703.56375</v>
+      </c>
+      <c r="H169" t="n">
+        <v>3743000</v>
+      </c>
+      <c r="I169" t="n">
+        <v>3745000</v>
+      </c>
+      <c r="J169" t="n">
+        <v>3735000</v>
+      </c>
+      <c r="K169" t="n">
+        <v>3740900</v>
+      </c>
+      <c r="L169" t="n">
+        <v>3783693.979898752</v>
+      </c>
+      <c r="M169" t="n">
+        <v>3702306.020101248</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>44603.75</v>
+      </c>
+      <c r="B170" t="n">
+        <v>3743000</v>
+      </c>
+      <c r="C170" t="n">
+        <v>3787000</v>
+      </c>
+      <c r="D170" t="n">
+        <v>3733000</v>
+      </c>
+      <c r="E170" t="n">
+        <v>3780000</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2048.50805875</v>
+      </c>
+      <c r="G170" t="n">
+        <v>7721090444.90481</v>
+      </c>
+      <c r="H170" t="n">
+        <v>3751800</v>
+      </c>
+      <c r="I170" t="n">
+        <v>3743000</v>
+      </c>
+      <c r="J170" t="n">
+        <v>3745000</v>
+      </c>
+      <c r="K170" t="n">
+        <v>3743500</v>
+      </c>
+      <c r="L170" t="n">
+        <v>3802680.251571705</v>
+      </c>
+      <c r="M170" t="n">
+        <v>3700919.748428295</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>44603.79166666666</v>
+      </c>
+      <c r="B171" t="n">
+        <v>3782000</v>
+      </c>
+      <c r="C171" t="n">
+        <v>3791000</v>
+      </c>
+      <c r="D171" t="n">
+        <v>3750000</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3783000</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1182.61776172</v>
+      </c>
+      <c r="G171" t="n">
+        <v>4463039929.1559</v>
+      </c>
+      <c r="H171" t="n">
+        <v>3765200</v>
+      </c>
+      <c r="I171" t="n">
+        <v>3751800</v>
+      </c>
+      <c r="J171" t="n">
+        <v>3743000</v>
+      </c>
+      <c r="K171" t="n">
+        <v>3749600</v>
+      </c>
+      <c r="L171" t="n">
+        <v>3802386.018878067</v>
+      </c>
+      <c r="M171" t="n">
+        <v>3728013.981121933</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>44603.83333333334</v>
+      </c>
+      <c r="B172" t="n">
+        <v>3783000</v>
+      </c>
+      <c r="C172" t="n">
+        <v>3784000</v>
+      </c>
+      <c r="D172" t="n">
+        <v>3755000</v>
+      </c>
+      <c r="E172" t="n">
+        <v>3759000</v>
+      </c>
+      <c r="F172" t="n">
+        <v>779.04072558</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2937057879.97831</v>
+      </c>
+      <c r="H172" t="n">
+        <v>3767200</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3765200</v>
+      </c>
+      <c r="J172" t="n">
+        <v>3751800</v>
+      </c>
+      <c r="K172" t="n">
+        <v>3751100</v>
+      </c>
+      <c r="L172" t="n">
+        <v>3800946.110887034</v>
+      </c>
+      <c r="M172" t="n">
+        <v>3733453.889112966</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>44603.875</v>
+      </c>
+      <c r="B173" t="n">
+        <v>3759000</v>
+      </c>
+      <c r="C173" t="n">
+        <v>3795000</v>
+      </c>
+      <c r="D173" t="n">
+        <v>3749000</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3772000</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1721.02571756</v>
+      </c>
+      <c r="G173" t="n">
+        <v>6497202790.44162</v>
+      </c>
+      <c r="H173" t="n">
+        <v>3767200</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3767200</v>
+      </c>
+      <c r="J173" t="n">
+        <v>3765200</v>
+      </c>
+      <c r="K173" t="n">
+        <v>3756100</v>
+      </c>
+      <c r="L173" t="n">
+        <v>3800946.110887034</v>
+      </c>
+      <c r="M173" t="n">
+        <v>3733453.889112966</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>44603.91666666666</v>
+      </c>
+      <c r="B174" t="n">
+        <v>3773000</v>
+      </c>
+      <c r="C174" t="n">
+        <v>3800000</v>
+      </c>
+      <c r="D174" t="n">
+        <v>3764000</v>
+      </c>
+      <c r="E174" t="n">
+        <v>3795000</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1665.33687738</v>
+      </c>
+      <c r="G174" t="n">
+        <v>6304884597.42112</v>
+      </c>
+      <c r="H174" t="n">
+        <v>3777800</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3767200</v>
+      </c>
+      <c r="J174" t="n">
+        <v>3767200</v>
+      </c>
+      <c r="K174" t="n">
+        <v>3760400</v>
+      </c>
+      <c r="L174" t="n">
+        <v>3804535.743864722</v>
+      </c>
+      <c r="M174" t="n">
+        <v>3751064.256135278</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>44603.95833333334</v>
+      </c>
+      <c r="B175" t="n">
+        <v>3796000</v>
+      </c>
+      <c r="C175" t="n">
+        <v>3804000</v>
+      </c>
+      <c r="D175" t="n">
+        <v>3751000</v>
+      </c>
+      <c r="E175" t="n">
+        <v>3757000</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2682.92522246</v>
+      </c>
+      <c r="G175" t="n">
+        <v>10141876411.55108</v>
+      </c>
+      <c r="H175" t="n">
+        <v>3773200</v>
+      </c>
+      <c r="I175" t="n">
+        <v>3777800</v>
+      </c>
+      <c r="J175" t="n">
+        <v>3767200</v>
+      </c>
+      <c r="K175" t="n">
+        <v>3762500</v>
+      </c>
+      <c r="L175" t="n">
+        <v>3805399.378875997</v>
+      </c>
+      <c r="M175" t="n">
+        <v>3741000.621124003</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B176" t="n">
+        <v>3760000</v>
+      </c>
+      <c r="C176" t="n">
+        <v>3780000</v>
+      </c>
+      <c r="D176" t="n">
+        <v>3753000</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3768000</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1168.5134204</v>
+      </c>
+      <c r="G176" t="n">
+        <v>4402298988.40938</v>
+      </c>
+      <c r="H176" t="n">
+        <v>3770200</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3773200</v>
+      </c>
+      <c r="J176" t="n">
+        <v>3777800</v>
+      </c>
+      <c r="K176" t="n">
+        <v>3767700</v>
+      </c>
+      <c r="L176" t="n">
+        <v>3800577.623343507</v>
+      </c>
+      <c r="M176" t="n">
+        <v>3739822.376656493</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>44604.04166666666</v>
+      </c>
+      <c r="B177" t="n">
+        <v>3764000</v>
+      </c>
+      <c r="C177" t="n">
+        <v>3778000</v>
+      </c>
+      <c r="D177" t="n">
+        <v>3741000</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3758000</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1251.57326804</v>
+      </c>
+      <c r="G177" t="n">
+        <v>4701409979.88642</v>
+      </c>
+      <c r="H177" t="n">
+        <v>3770000</v>
+      </c>
+      <c r="I177" t="n">
+        <v>3770200</v>
+      </c>
+      <c r="J177" t="n">
+        <v>3773200</v>
+      </c>
+      <c r="K177" t="n">
+        <v>3768600</v>
+      </c>
+      <c r="L177" t="n">
+        <v>3800757.112998459</v>
+      </c>
+      <c r="M177" t="n">
+        <v>3739242.887001541</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>44604.08333333334</v>
+      </c>
+      <c r="B178" t="n">
+        <v>3760000</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3771000</v>
+      </c>
+      <c r="D178" t="n">
+        <v>3733000</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3742000</v>
+      </c>
+      <c r="F178" t="n">
+        <v>610.4233698</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2289386689.86488</v>
+      </c>
+      <c r="H178" t="n">
+        <v>3764000</v>
+      </c>
+      <c r="I178" t="n">
+        <v>3770000</v>
+      </c>
+      <c r="J178" t="n">
+        <v>3770200</v>
+      </c>
+      <c r="K178" t="n">
+        <v>3765600</v>
+      </c>
+      <c r="L178" t="n">
+        <v>3803319.206502675</v>
+      </c>
+      <c r="M178" t="n">
+        <v>3724680.793497325</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>44604.125</v>
+      </c>
+      <c r="B179" t="n">
+        <v>3741000</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3749000</v>
+      </c>
+      <c r="D179" t="n">
+        <v>3673000</v>
+      </c>
+      <c r="E179" t="n">
+        <v>3673000</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2695.2048264</v>
+      </c>
+      <c r="G179" t="n">
+        <v>9965238472.238661</v>
+      </c>
+      <c r="H179" t="n">
+        <v>3739600</v>
+      </c>
+      <c r="I179" t="n">
+        <v>3764000</v>
+      </c>
+      <c r="J179" t="n">
+        <v>3770000</v>
+      </c>
+      <c r="K179" t="n">
+        <v>3758700</v>
+      </c>
+      <c r="L179" t="n">
+        <v>3816341.12326517</v>
+      </c>
+      <c r="M179" t="n">
+        <v>3662858.87673483</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>44604.16666666666</v>
+      </c>
+      <c r="B180" t="n">
+        <v>3674000</v>
+      </c>
+      <c r="C180" t="n">
+        <v>3701000</v>
+      </c>
+      <c r="D180" t="n">
+        <v>3641000</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3670000</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4671.8527784</v>
+      </c>
+      <c r="G180" t="n">
+        <v>17120613382.28717</v>
+      </c>
+      <c r="H180" t="n">
+        <v>3722200</v>
+      </c>
+      <c r="I180" t="n">
+        <v>3739600</v>
+      </c>
+      <c r="J180" t="n">
+        <v>3764000</v>
+      </c>
+      <c r="K180" t="n">
+        <v>3747700</v>
+      </c>
+      <c r="L180" t="n">
+        <v>3816628.809163305</v>
+      </c>
+      <c r="M180" t="n">
+        <v>3627771.190836695</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>44604.20833333334</v>
+      </c>
+      <c r="B181" t="n">
+        <v>3670000</v>
+      </c>
+      <c r="C181" t="n">
+        <v>3680000</v>
+      </c>
+      <c r="D181" t="n">
+        <v>3576000</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3583000</v>
+      </c>
+      <c r="F181" t="n">
+        <v>5474.27484741</v>
+      </c>
+      <c r="G181" t="n">
+        <v>19767749756.33128</v>
+      </c>
+      <c r="H181" t="n">
+        <v>3685200</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3722200</v>
+      </c>
+      <c r="J181" t="n">
+        <v>3739600</v>
+      </c>
+      <c r="K181" t="n">
+        <v>3727700</v>
+      </c>
+      <c r="L181" t="n">
+        <v>3824307.152943334</v>
+      </c>
+      <c r="M181" t="n">
+        <v>3546092.847056666</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>44604.25</v>
+      </c>
+      <c r="B182" t="n">
+        <v>3584000</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3616000</v>
+      </c>
+      <c r="D182" t="n">
+        <v>3580000</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3585000</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2929.17265645</v>
+      </c>
+      <c r="G182" t="n">
+        <v>10531247646.39532</v>
+      </c>
+      <c r="H182" t="n">
+        <v>3650600</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3685200</v>
+      </c>
+      <c r="J182" t="n">
+        <v>3722200</v>
+      </c>
+      <c r="K182" t="n">
+        <v>3710300</v>
+      </c>
+      <c r="L182" t="n">
+        <v>3785155.564730709</v>
+      </c>
+      <c r="M182" t="n">
+        <v>3516044.435269291</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>44604.29166666666</v>
+      </c>
+      <c r="B183" t="n">
+        <v>3585000</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3593000</v>
+      </c>
+      <c r="D183" t="n">
+        <v>3510000</v>
+      </c>
+      <c r="E183" t="n">
+        <v>3530000</v>
+      </c>
+      <c r="F183" t="n">
+        <v>5969.91070074</v>
+      </c>
+      <c r="G183" t="n">
+        <v>21184795794.78035</v>
+      </c>
+      <c r="H183" t="n">
+        <v>3608200</v>
+      </c>
+      <c r="I183" t="n">
+        <v>3650600</v>
+      </c>
+      <c r="J183" t="n">
+        <v>3685200</v>
+      </c>
+      <c r="K183" t="n">
+        <v>3686100</v>
+      </c>
+      <c r="L183" t="n">
+        <v>3731920.653085893</v>
+      </c>
+      <c r="M183" t="n">
+        <v>3484479.346914107</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>44604.33333333334</v>
+      </c>
+      <c r="B184" t="n">
+        <v>3528000</v>
+      </c>
+      <c r="C184" t="n">
+        <v>3594000</v>
+      </c>
+      <c r="D184" t="n">
+        <v>3515000</v>
+      </c>
+      <c r="E184" t="n">
+        <v>3578000</v>
+      </c>
+      <c r="F184" t="n">
+        <v>4283.25310204</v>
+      </c>
+      <c r="G184" t="n">
+        <v>15267057227.96733</v>
+      </c>
+      <c r="H184" t="n">
+        <v>3589200</v>
+      </c>
+      <c r="I184" t="n">
+        <v>3608200</v>
+      </c>
+      <c r="J184" t="n">
+        <v>3650600</v>
+      </c>
+      <c r="K184" t="n">
+        <v>3664400</v>
+      </c>
+      <c r="L184" t="n">
+        <v>3690268.2937424</v>
+      </c>
+      <c r="M184" t="n">
+        <v>3488131.7062576</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>44604.375</v>
+      </c>
+      <c r="B185" t="n">
+        <v>3582000</v>
+      </c>
+      <c r="C185" t="n">
+        <v>3605000</v>
+      </c>
+      <c r="D185" t="n">
+        <v>3551000</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3605000</v>
+      </c>
+      <c r="F185" t="n">
+        <v>4752.57401465</v>
+      </c>
+      <c r="G185" t="n">
+        <v>17018549144.86314</v>
+      </c>
+      <c r="H185" t="n">
+        <v>3576200</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3589200</v>
+      </c>
+      <c r="J185" t="n">
+        <v>3608200</v>
+      </c>
+      <c r="K185" t="n">
+        <v>3649200</v>
+      </c>
+      <c r="L185" t="n">
+        <v>3631794.96380069</v>
+      </c>
+      <c r="M185" t="n">
+        <v>3520605.03619931</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>44604.41666666666</v>
+      </c>
+      <c r="B186" t="n">
+        <v>3600000</v>
+      </c>
+      <c r="C186" t="n">
+        <v>3623000</v>
+      </c>
+      <c r="D186" t="n">
+        <v>3589000</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3612000</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2908.02327938</v>
+      </c>
+      <c r="G186" t="n">
+        <v>10486824918.6211</v>
+      </c>
+      <c r="H186" t="n">
+        <v>3582000</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3576200</v>
+      </c>
+      <c r="J186" t="n">
+        <v>3589200</v>
+      </c>
+      <c r="K186" t="n">
+        <v>3633600</v>
+      </c>
+      <c r="L186" t="n">
+        <v>3646482.555780614</v>
+      </c>
+      <c r="M186" t="n">
+        <v>3517517.444219386</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>44604.45833333334</v>
+      </c>
+      <c r="B187" t="n">
+        <v>3612000</v>
+      </c>
+      <c r="C187" t="n">
+        <v>3621000</v>
+      </c>
+      <c r="D187" t="n">
+        <v>3605000</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3616000</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1540.31844682</v>
+      </c>
+      <c r="G187" t="n">
+        <v>5565446360.43188</v>
+      </c>
+      <c r="H187" t="n">
+        <v>3588200</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3582000</v>
+      </c>
+      <c r="J187" t="n">
+        <v>3576200</v>
+      </c>
+      <c r="K187" t="n">
+        <v>3619400</v>
+      </c>
+      <c r="L187" t="n">
+        <v>3659703.846050405</v>
+      </c>
+      <c r="M187" t="n">
+        <v>3516696.153949595</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>44604.5</v>
+      </c>
+      <c r="B188" t="n">
+        <v>3616000</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3616000</v>
+      </c>
+      <c r="D188" t="n">
+        <v>3570000</v>
+      </c>
+      <c r="E188" t="n">
+        <v>3591000</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2036.28864994</v>
+      </c>
+      <c r="G188" t="n">
+        <v>7314830273.28025</v>
+      </c>
+      <c r="H188" t="n">
+        <v>3600400</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3588200</v>
+      </c>
+      <c r="J188" t="n">
+        <v>3582000</v>
+      </c>
+      <c r="K188" t="n">
+        <v>3604300</v>
+      </c>
+      <c r="L188" t="n">
+        <v>3631851.550041294</v>
+      </c>
+      <c r="M188" t="n">
+        <v>3568948.449958706</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>44604.54166666666</v>
+      </c>
+      <c r="B189" t="n">
+        <v>3590000</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3606000</v>
+      </c>
+      <c r="D189" t="n">
+        <v>3584000</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3590000</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1111.5886745</v>
+      </c>
+      <c r="G189" t="n">
+        <v>3998601002.1789</v>
+      </c>
+      <c r="H189" t="n">
+        <v>3602800</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3600400</v>
+      </c>
+      <c r="J189" t="n">
+        <v>3588200</v>
+      </c>
+      <c r="K189" t="n">
+        <v>3596000</v>
+      </c>
+      <c r="L189" t="n">
+        <v>3626607.561823925</v>
+      </c>
+      <c r="M189" t="n">
+        <v>3578992.438176075</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>44604.58333333334</v>
+      </c>
+      <c r="B190" t="n">
+        <v>3590000</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3597000</v>
+      </c>
+      <c r="D190" t="n">
+        <v>3563000</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3566000</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1816.90312653</v>
+      </c>
+      <c r="G190" t="n">
+        <v>6495640297.09863</v>
+      </c>
+      <c r="H190" t="n">
+        <v>3595000</v>
+      </c>
+      <c r="I190" t="n">
+        <v>3602800</v>
+      </c>
+      <c r="J190" t="n">
+        <v>3600400</v>
+      </c>
+      <c r="K190" t="n">
+        <v>3585600</v>
+      </c>
+      <c r="L190" t="n">
+        <v>3635149.71979977</v>
+      </c>
+      <c r="M190" t="n">
+        <v>3554850.28020023</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>44604.625</v>
+      </c>
+      <c r="B191" t="n">
+        <v>3566000</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3569000</v>
+      </c>
+      <c r="D191" t="n">
+        <v>3508000</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3543000</v>
+      </c>
+      <c r="F191" t="n">
+        <v>4750.48046777</v>
+      </c>
+      <c r="G191" t="n">
+        <v>16813040518.08616</v>
+      </c>
+      <c r="H191" t="n">
+        <v>3581200</v>
+      </c>
+      <c r="I191" t="n">
+        <v>3595000</v>
+      </c>
+      <c r="J191" t="n">
+        <v>3602800</v>
+      </c>
+      <c r="K191" t="n">
+        <v>3581600</v>
+      </c>
+      <c r="L191" t="n">
+        <v>3636650.879163454</v>
+      </c>
+      <c r="M191" t="n">
+        <v>3525749.120836546</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>44604.66666666666</v>
+      </c>
+      <c r="B192" t="n">
+        <v>3542000</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3574000</v>
+      </c>
+      <c r="D192" t="n">
+        <v>3541000</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3570000</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1914.54078778</v>
+      </c>
+      <c r="G192" t="n">
+        <v>6812383909.80405</v>
+      </c>
+      <c r="H192" t="n">
+        <v>3572000</v>
+      </c>
+      <c r="I192" t="n">
+        <v>3581200</v>
+      </c>
+      <c r="J192" t="n">
+        <v>3595000</v>
+      </c>
+      <c r="K192" t="n">
+        <v>3580100</v>
+      </c>
+      <c r="L192" t="n">
+        <v>3611572.717874818</v>
+      </c>
+      <c r="M192" t="n">
+        <v>3532427.282125182</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>44604.70833333334</v>
+      </c>
+      <c r="B193" t="n">
+        <v>3570000</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3594000</v>
+      </c>
+      <c r="D193" t="n">
+        <v>3567000</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3582000</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1606.24093837</v>
+      </c>
+      <c r="G193" t="n">
+        <v>5756127353.7825</v>
+      </c>
+      <c r="H193" t="n">
+        <v>3570200</v>
+      </c>
+      <c r="I193" t="n">
+        <v>3572000</v>
+      </c>
+      <c r="J193" t="n">
+        <v>3581200</v>
+      </c>
+      <c r="K193" t="n">
+        <v>3585300</v>
+      </c>
+      <c r="L193" t="n">
+        <v>3606099.860723964</v>
+      </c>
+      <c r="M193" t="n">
+        <v>3534300.139276036</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>44604.75</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3583000</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3590000</v>
+      </c>
+      <c r="D194" t="n">
+        <v>3574000</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3589000</v>
+      </c>
+      <c r="F194" t="n">
+        <v>718.81810089</v>
+      </c>
+      <c r="G194" t="n">
+        <v>2575034880.21249</v>
+      </c>
+      <c r="H194" t="n">
+        <v>3570000</v>
+      </c>
+      <c r="I194" t="n">
+        <v>3570200</v>
+      </c>
+      <c r="J194" t="n">
+        <v>3572000</v>
+      </c>
+      <c r="K194" t="n">
+        <v>3586400</v>
+      </c>
+      <c r="L194" t="n">
+        <v>3605355.339059327</v>
+      </c>
+      <c r="M194" t="n">
+        <v>3534644.660940673</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>44604.79166666666</v>
+      </c>
+      <c r="B195" t="n">
+        <v>3588000</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3590000</v>
+      </c>
+      <c r="D195" t="n">
+        <v>3532000</v>
+      </c>
+      <c r="E195" t="n">
+        <v>3553000</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1491.02628104</v>
+      </c>
+      <c r="G195" t="n">
+        <v>5304785672.50194</v>
+      </c>
+      <c r="H195" t="n">
+        <v>3567400</v>
+      </c>
+      <c r="I195" t="n">
+        <v>3570000</v>
+      </c>
+      <c r="J195" t="n">
+        <v>3570200</v>
+      </c>
+      <c r="K195" t="n">
+        <v>3581200</v>
+      </c>
+      <c r="L195" t="n">
+        <v>3605990.154184714</v>
+      </c>
+      <c r="M195" t="n">
+        <v>3528809.845815286</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>44604.83333333334</v>
+      </c>
+      <c r="B196" t="n">
+        <v>3551000</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3575000</v>
+      </c>
+      <c r="D196" t="n">
+        <v>3515000</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3573000</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1968.99670378</v>
+      </c>
+      <c r="G196" t="n">
+        <v>6978842725.22275</v>
+      </c>
+      <c r="H196" t="n">
+        <v>3573400</v>
+      </c>
+      <c r="I196" t="n">
+        <v>3567400</v>
+      </c>
+      <c r="J196" t="n">
+        <v>3570000</v>
+      </c>
+      <c r="K196" t="n">
+        <v>3577300</v>
+      </c>
+      <c r="L196" t="n">
+        <v>3600698.351598585</v>
+      </c>
+      <c r="M196" t="n">
+        <v>3546101.648401415</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>44604.875</v>
+      </c>
+      <c r="B197" t="n">
+        <v>3573000</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3586000</v>
+      </c>
+      <c r="D197" t="n">
+        <v>3542000</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3551000</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1205.2215108</v>
+      </c>
+      <c r="G197" t="n">
+        <v>4292704627.38939</v>
+      </c>
+      <c r="H197" t="n">
+        <v>3569600</v>
+      </c>
+      <c r="I197" t="n">
+        <v>3573400</v>
+      </c>
+      <c r="J197" t="n">
+        <v>3567400</v>
+      </c>
+      <c r="K197" t="n">
+        <v>3570800</v>
+      </c>
+      <c r="L197" t="n">
+        <v>3603705.717995667</v>
+      </c>
+      <c r="M197" t="n">
+        <v>3535494.282004333</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>44604.91666666666</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3550000</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3565000</v>
+      </c>
+      <c r="D198" t="n">
+        <v>3538000</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3540000</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1065.2883852</v>
+      </c>
+      <c r="G198" t="n">
+        <v>3783961561.90415</v>
+      </c>
+      <c r="H198" t="n">
+        <v>3561200</v>
+      </c>
+      <c r="I198" t="n">
+        <v>3569600</v>
+      </c>
+      <c r="J198" t="n">
+        <v>3573400</v>
+      </c>
+      <c r="K198" t="n">
+        <v>3565700</v>
+      </c>
+      <c r="L198" t="n">
+        <v>3600350.989770375</v>
+      </c>
+      <c r="M198" t="n">
+        <v>3522049.010229625</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>44604.95833333334</v>
+      </c>
+      <c r="B199" t="n">
+        <v>3539000</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3554000</v>
+      </c>
+      <c r="D199" t="n">
+        <v>3494000</v>
+      </c>
+      <c r="E199" t="n">
+        <v>3532000</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3376.42743965</v>
+      </c>
+      <c r="G199" t="n">
+        <v>11873785190.41696</v>
+      </c>
+      <c r="H199" t="n">
+        <v>3549800</v>
+      </c>
+      <c r="I199" t="n">
+        <v>3561200</v>
+      </c>
+      <c r="J199" t="n">
+        <v>3569600</v>
+      </c>
+      <c r="K199" t="n">
+        <v>3559900</v>
+      </c>
+      <c r="L199" t="n">
+        <v>3580829.018676071</v>
+      </c>
+      <c r="M199" t="n">
+        <v>3518770.981323929</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B200" t="n">
+        <v>3533000</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3536000</v>
+      </c>
+      <c r="D200" t="n">
+        <v>3490000</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3519000</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2207.72343836</v>
+      </c>
+      <c r="G200" t="n">
+        <v>7748442833.40724</v>
+      </c>
+      <c r="H200" t="n">
+        <v>3543000</v>
+      </c>
+      <c r="I200" t="n">
+        <v>3549800</v>
+      </c>
+      <c r="J200" t="n">
+        <v>3561200</v>
+      </c>
+      <c r="K200" t="n">
+        <v>3555200</v>
+      </c>
+      <c r="L200" t="n">
+        <v>3583865.633483405</v>
+      </c>
+      <c r="M200" t="n">
+        <v>3502134.366516595</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>44605.04166666666</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3519000</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3519000</v>
+      </c>
+      <c r="D201" t="n">
+        <v>3513000</v>
+      </c>
+      <c r="E201" t="n">
+        <v>3518000</v>
+      </c>
+      <c r="F201" t="n">
+        <v>23.77104217</v>
+      </c>
+      <c r="G201" t="n">
+        <v>83585255.58408999</v>
+      </c>
+      <c r="H201" t="n">
+        <v>3532000</v>
+      </c>
+      <c r="I201" t="n">
+        <v>3543000</v>
+      </c>
+      <c r="J201" t="n">
+        <v>3549800</v>
+      </c>
+      <c r="K201" t="n">
+        <v>3552700</v>
+      </c>
+      <c r="L201" t="n">
+        <v>3560106.93864511</v>
+      </c>
+      <c r="M201" t="n">
+        <v>3503893.06135489</v>
       </c>
     </row>
   </sheetData>
